--- a/ambassador/reviewer_sheets_excel/reviewer_6_sheet.xlsx
+++ b/ambassador/reviewer_sheets_excel/reviewer_6_sheet.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1837"/>
+  <dimension ref="A1:I1810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,8 +430,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
     <col width="45" customWidth="1" min="6" max="6"/>
@@ -488,27 +488,28 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>299</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>298</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Anish</t>
+          <t>_No</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Thapaliya</t>
+          <t>response_</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
+nan
+        Ambassador Pitch:
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
 </t>
         </is>
       </c>
@@ -999,28 +1000,37 @@
       <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>292</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Abdou</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>DIOP</t>
+          <t>Guerra</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As an Ambassador, I would contribute in several ways. First, by conducting research and encouraging my students to explore solutions to cutting-edge, real-world problems, especially in the field of robotics.
+I actively share knowledge and code through clear, structured educational content. I'm currently working on tutorials and videos that explain key concepts like ROS2 for robotics, Vision Transformers for video classification, and end-to-end pipelines for computer vision. My background in building modular AI systems (e.g., detection, pose estimation, segmentation, tracking).
+As an Ambassador, I would continue contributing by:
+- Creating tutorials and open-source projects for deploying PyTorch models on edge/mobile devices using React Native and PyTorch Mobile/ONNX.
+- Sharing insights on training and fine-tuning advanced models like SAM2 with real-world datasets.
+- Supporting the PyTorch community through mentorship, social media content, and interactive talks or workshops focused on vision, multimodal AI, and robotics.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Here's some links to my social media:
+https://www.tiktok.com/@epic_robotics
+https://www.youtube.com/@epicrobotics7189</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
@@ -1510,10 +1520,8 @@
       <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>287</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>287</v>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
@@ -1527,11 +1535,32 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am eager to contribute to the PyTorch community by leveraging my extensive background in mentorship, community leadership, and industrial machine learning. My plan is focused on tangible actions that will foster growth, engagement, and knowledge dissemination.
+Engagement with the PyTorch Community:
+Establish a "PyTorch Houston" Hub: I will found and lead a local meetup group in the major tech hub of Houston, creating a space for developers to connect, learn, and collaborate. I am already actively involved in the local developer meetups in Houston city (PyTexas, Houston Linux Users Group, Houston AI, Houston Azure Users Group, Houston AWS Users Group, IEEE &amp; ACM Houston Chapters etc.), if there's not a lot of interest in a separate Pytorch-focused group in Houston, I will try to start dedicated Pytorch-based subgroups under the existing communities.
+Active Online Presence: I will be an active voice in online forums, social media, and developer communities, answering questions and evangelizing the power and usability of PyTorch.
+Helping the Initiative Thrive:
+Focus on MLOps and Productionization: Using my AWS and Azure certifications, I will create resources focused on the practical challenges of deploying, scaling, and monitoring PyTorch models in the cloud, a critical area for professional developers.
+Feedback Loop: I will act as a dedicated liaison, collecting and synthesizing feedback from the community to help the core PyTorch team make data-driven decisions for the future of the framework.
+Plans for Hosting Events, Mentoring, or Knowledge-Sharing:
+Events:
+Quarterly "PyTorch Houston" Meetups: Hands-on workshops, project showcases, and expert talks.
+University Outreach: Drawing on my past experiences of mentoring at various Collegiate Hackathons, I will conduct/help organize guest lectures and workshops at local universities (during Hackathons or other dedicated events), including my alma mater, the University of Florida (remotely), to inspire the next generation of ML engineers. 
+Mentoring:
+PyTorch "Office Hours": I am among the top 1% mentors on mentorship platforms like ADPList.org and Topmate.io where I offer dedicated, free sessions for debugging, project ideation, and career advice. I will create an additional slot on my calendar there dedicatedly for Pytorch-based projects.
+Knowledge-Sharing:
+Content Series: Author a series of articles and/or videos on "PyTorch in Production," covering topics from data ingestion to model optimization and deployment via social-media platforms like Substack, Medium.com, LinkedIn, Youtube etc.
+By focusing on universal engineering challenges, I can provide significant value to the PyTorch community while fully respecting my professional obligations.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://www.linkedin.com/in/anuragbihani/
+https://adplist.org/mentors/anurag-bihani
+https://topmate.io/anuragbihani</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
@@ -2021,28 +2050,38 @@
       <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
+      <c r="A83" s="2" t="n">
+        <v>285</v>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Akash</t>
+          <t>Alexey</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Agrawal</t>
+          <t>Gruzdev</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Hi PyTorch Team! 
+First of all, thank you for stable growth of such a nice tool as PyTorch and starting this Ambassador program, that's a really good idea to involve more people in PyTorch activities, and spread the knowledge across the globe about PyTorch and its ecosystem.
+I'm a Alexey Gruzdev, taking Tech Lead position in AI/ML domain, based in Russia, working closely with instruments that's provided by PyTorch ecosystem.
+I would be happy to join the program, and be helpful online &amp; offline in Russia.
+How can I contribute, from my point of view:
+- Advocate for PyTorch with tutorials and blogs for broader community sharing anywhere online.
+- Advocate for PyTorch within the company 😃
+- Research with PyTorch
+- Maybe involved in some activities in Russia if you plan anything there.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
@@ -2532,28 +2571,38 @@
       <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>271</t>
-        </is>
+      <c r="A110" s="2" t="n">
+        <v>281</v>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Phuriwat</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Wang</t>
+          <t>Angkoondittaphong</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Currently, I am working as a research assistant at the Faculty of ICT, Mahidol University (MUICT) on the project of federated learning in the medical images field. While working on this research project, I had a chance to use MU AI Center, a SLURM-based computer cluster of Mahidol University, which ignited my passion for performance tuning. I would love to share my experience in using PyTorch in deep learning research. Although many people have been sharing this in many forms, blogs, and video tutorials, they are barely written in Thai. I would like to fill in that gap.
+During my Bachelor's study, I founded MUICT's AI club and arranged several workshops and knowledge-sharing sessions on basic deep learning. Even though, now, I am not the club's president anymore, I occasionally find an interesting speaker to arrange some events at the club. AI Club and I also hosted a hackathon on detecting an alveolar antral artery in CBCT images, we would love to arrange another hackathon, collaborating with PyTorch.
+Several weeks ago, I had a chance to join the Super AI Engineer boot camp, the camp for training AI engineers. To my surprise, most of the people in the camp never have any experience with performance tuning. I decided to give a lightning talk on the basics of training performance tuning because I believe that people better learn about performance tuning early in their study so that they would be not stuck with long training time. I am willing to share this knowledge of PyTorch with the boarder audience.
+In summary, I would love to 
+- Creates more PyTorch content especially in Thai.
+- Host events, ex. Hackathon, on collaborating with PyTorch.
+- Organizes workshops on advanced PyTorch techniques, such as performance tuning, in universities or the Python Community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+-My LinkedIn account: https://www.linkedin.com/in/phuriwat-angkoondittaphong/
+- AI club first hackathon: https://www.linkedin.com/posts/phuriwat-angkoondittaphong_on-october-16-2024-the-ai-club-of-the-faculty-activity-7258184987747713024-i0uI
+- Lightning Talk on "On the speed of training a Deep Learning model": https://docs.google.com/presentation/d/1Rtwgy13bx2I4iOff5jSOyyXWRFKk6aX2MXoLi2Toej4/edit?usp=sharing</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
@@ -3043,28 +3092,45 @@
       <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>269</t>
-        </is>
+      <c r="A137" s="2" t="n">
+        <v>275</v>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>Giorgio</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Magno</t>
+          <t>Pousty</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a member of Red Hat's Open Source Program Office team for AI initiatives, I am specifically focused on PyTorch and vLLM. I'm uniquely positioned to advance PyTorch adoption across enterprise and open source communities. My role as a Red Hat representative to the Open AI Alliance provides direct insight into industry trends and strategic partnerships that would benefit the broader PyTorch ecosystem.
+**Proven Community Building Experience**
+I've spent over 20 years building and nurturing open source communities, starting with PostgreSQL in 2002 and FOSS4G since 2006. This experience translates directly to PyTorch community work. I've successfully organized multi-day conferences (deCarta developer conference), regional meetups (jsgeo events), and technical workshops (PostGIS days), consistently bringing together internal and external speakers while securing sponsor support. These events regularly drew 100-200 participants across different skill levels.
+**Immediate Contribution Plans**
+*Events &amp; Education*: I'll host regular PyTorch workshops targeting both newcomers and intermediate users, leveraging my 150+ talks experience. I've proposed a talk for PyTorch Conference on running PyTorch on containerized operating systems, which bridges the gap between data scientists and DevOps/Kubernetes practitioners.
+*Content Creation*: I'll focus on creating beginner-friendly PyTorch content, leveraging my strength in breaking down technically difficult concepts into accessible foundations. My tutorials will help newcomers understand PyTorch terminology and concepts, building the strong getting started experience that's essential for community growth.
+*Demonstration Applications*: I'm developing a multi-modal, agent-based application using PyTorch to help people with reduced vision understand uploaded picture content and find similar images for exploration - showcasing PyTorch's accessibility potential.
+*Cross-Community Outreach*: I'll introduce PyTorch to established communities where AI adoption is growing but not yet mainstream - including PostgreSQL, FOSS4G, and Kubernetes users. This represents significant untapped potential for PyTorch adoption.
+*Enterprise Bridge*: Through my Red Hat role, I'll facilitate connections between PyTorch Foundation priorities and enterprise needs, helping identify areas where corporate contributions can accelerate community goals.
+**Long-term Vision**
+My goal is expanding PyTorch's reach beyond traditional ML/AI circles into broader software engineering communities. By demonstrating practical applications and providing clear learning paths, I can help teams beginning their AI journey reduce their friction in adopting PyTorch, learn best practices, and encourage them to come join the community.
+This isn't theoretical - it's an extension of community work I've been doing successfully for two decades, now applied to PyTorch with the backing of a major enterprise platform.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+My YouTube channel has examples of my talks and content
+https://www.youtube.com/@thesteve0
+I am have also done many podcast interviews, such as 
+https://www.youtube.com/watch?v=Q4MdQaBaJy4
+https://www.apimatic.io/art-of-developer-experience/podcast-steve-pousty</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
@@ -3554,28 +3620,31 @@
       <c r="I163" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
+      <c r="A164" s="2" t="n">
+        <v>271</v>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Navarro</t>
+          <t>Wang</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+He’s a dedicated AI researcher passionate about community growth. With experience mentoring junior developers and organizing AI conferences, he envisions creating a structured PyTorch mentorship program and hosting engaging events to connect academia and industry. His goal: build an inclusive, innovative PyTorch ecosystem where all developers can thrive.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+LinkedIn: https://www.linkedin.com/in/kevin-wang-9b1650226/
+Github: https://github.com/aiejvn</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
@@ -4065,28 +4134,32 @@
       <c r="I190" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
+      <c r="A191" s="2" t="n">
+        <v>268</v>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>Hussain</t>
+          <t>Assoc.</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>Salih</t>
+          <t>Cinar</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am an academic. I teach deep learning classes both undergraduate and graduate level and utilize PyTorch as the framework of choice. I am also NVIDIA university ambassador. I organize workshops events both nationally and internationally. Most of the audience are students and these events are free of charge. I plan to follow the same path as PyTorch ambassador and enhance my workshop portfolio to disseminate knowledge to the community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://eyupcinar.com/
+https://researchlab.eyupcinar.com/
+https://www.nvidia.com/en-eu/training/instructor-directory/bio/?instructorId=0038Z00003WeBwWQAV</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
@@ -4576,28 +4649,47 @@
       <c r="I217" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
+      <c r="A218" s="2" t="n">
+        <v>261</v>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>Dowling</t>
+          <t>Navarro</t>
         </is>
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am honored to be considered for the PyTorch Ambassador 2025 program. As a current master’s student in Computer Science specializing in Artificial Intelligence, with a focus on language models, I have developed a deep and growing expertise in PyTorch, which I use daily for experimentation and research. My engagement with PyTorch has been pivotal in my academic and professional journey, reflected in three scientific articles, including a significant publication at Globecom 2024. There, I fine-tuned PHI2 models for Retrieval-Augmented Generation (RAG) in telecommunications contexts, demonstrating my ability to apply PyTorch to cutting-edge real-world problems.
+Professionally, I am currently working as a Data Scientist at Alicorp, where I build AI agents using open-source libraries and open-weight language models. My work involves applying PyTorch to develop scalable, efficient solutions that integrate seamlessly into business operations—demonstrating PyTorch’s power not only in research but in production environments as well.
+Beyond research and industry, I actively optimize large language models (LLMs) and deploy them on low-resource devices within federated learning environments using PyTorch. This hands-on experience equips me with practical insights that I eagerly share with the community.
+I am passionate about knowledge sharing and community building. As a content creator on TikTok with over 2.5k followers and YouTube with more than 13k subscribers, I produce engaging AI-related videos that make complex concepts accessible to a broad audience. Additionally, I have a LinkedIn following of over 1.6k professionals where I share insights and updates in AI and PyTorch. I am also an instructor on Udemy and teach Generative AI at Datapath, helping foster the next generation of AI practitioners.
+Furthermore, I co-founded Promters.sh, a growing AI community in Latin America, which promotes collaboration and learning. My participation in hackathons such as those organized by Telefónica, ITU, and Factored has consistently earned top placements, reflecting my commitment to innovation and teamwork.
+As a PyTorch Ambassador, I plan to leverage my multidisciplinary skills and community leadership to:
+1. Host workshops and webinars focused on advanced PyTorch techniques for language models and federated learning.
+2. Mentor newcomers and intermediate users to help them harness PyTorch’s full potential.
+3. Create accessible educational content in both English and Spanish to engage the Latin American AI community.
+4. Facilitate collaborations between academia, industry, and enthusiasts to broaden PyTorch adoption and innovation.
+I am excited to contribute my experience, passion, and energy to help the PyTorch initiative thrive and empower a diverse, global community.
+Thank you for your consideration.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Youtube channel: https://www.youtube.com/@lfsolisnavarro
+linkedin page: https://www.linkedin.com/in/luisfernandosolisnavarro/
+tiktok channel:  https://www.tiktok.com/@lfsolisnavarro
+Udemy courses: https://beacons.ai/lfsolisnavarro/udemycourses
+CV LINK: https://docs.google.com/document/d/1Yklb1UIkr84NL1ThhOigJ0Q1BOvmZuokI4IKxgTSidY/edit?usp=sharing
+Medium blog: https://medium.com/@lfsolisnavarro
+Google Scholar: https://scholar.google.com/citations?user=B4msnUgAAAAJ&amp;hl=pt-BR</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr"/>
@@ -5087,28 +5179,32 @@
       <c r="I244" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
+      <c r="A245" s="2" t="n">
+        <v>257</v>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>Sahdev</t>
+          <t>Temidayo</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>Zala</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="D245" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I will actively participate in community engagement, building trust among members, and fostering relationships with them 
+2) creating content or writing thread about pyTorch 
+3) attending space host and event
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E245" s="2" t="inlineStr"/>
@@ -5598,28 +5694,31 @@
       <c r="I271" t="inlineStr"/>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
+      <c r="A272" s="2" t="n">
+        <v>252</v>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Zaynul</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>vonThenen</t>
+          <t>Miah</t>
         </is>
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Sorry for resubmission as my previous submission got misclicked. As someone who has years of experience of hosting hands on workshops on PyTorch and it's best practices like feature extraction, data preparation and ensemble training as I've already worked on a PyTorch research project which I am using Audio Spectrogram Transformer (AST) Model, CNN14 model, key torch components and I'm using torch for Handles the deep learning component (AST model), Manages GPU acceleration when available, Provides the training loop and optimization for the transformer model, Processes audio spectrograms as tensors: https://github.com/azaynul10/Human_Analytics_codes . As a community builder, moderator and trusted user at Dev.To blogs I will write blog contents and create tutorial video contents on youtube here are my youtube and dev.to channel where you will find my experience on creating tutorials and demonstrating my project work: https://www.youtube.com/@zaynulabedinmiah , https://dev.to/azaynul10 . With the support of Pytorch I will create a study group where everyone once in a week will create a video content on pytorch content and in the end of month of quarter he/she will be rewarded if they have highest video contents like I did as a Microsoft Student Trainer I trained couple of developers, students on Microsoft certification and at the end of the month microsoft rewarded 15 study group participants of mine with exam vouchers and they gave exams and passed those like AI-900 and AZ-900 under my guidance and support. I will also foster an inclusive, Welcoming and diverse community like I did during organing KCD Chattogram by CNCF with 62.5% female speaker ratio and was also featured on Microsoft Commuity Blog on Internation Womens day 2025 as the best Male Ally nominated by women themselves: https://www.linkedin.com/posts/oputaolivia_iwd2025-womenintech-microsoftlearn-activity-7313591011266519040-Sq92?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAACJvR6sBLMfFJjZ96ahnmku97wrMGgU6eIM . I will also organize Pytorch hackathons and model showcase encouraging students to build real world AI solutions. Invite industry experts and researchers (as I am currently working with PHD researchers such as Dr. Aniqua Zereen maam) for guest talks and Q&amp;A sessions, bridging global PyTorch advancements with local developer needs. I will also collect feedback from the students and share them with the Pytorch core team  focusing on the needs of researchers working on audio, multimodal, and low-resource language models. Also we can host a multi-week series guiding participants from basic waveform processing to deploying CNN14/AST models for real-world sound event detection.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+As the Gitkraken Ambassador, only AWS cloud club captain, Microsoft Learn Gold Student Ambassador and Co-organizer of Machine Learning, AI, NLP and Deep Learing Community Bangladesh (previously TensorFlow User Group Bangladesh part of Google AI Community), Azure Tech Group Bangladesh, Fabric User Community Bangladesh, The AI, ML Community(part of Global AI Community)  When I started community work I saw so many students get enthusiasm when I share them the oppotunities I got from program but many students are not wiling to work for it due to their academics pressure.  So I was the only person here who had to step up and don't give up on this community building process and I did that and grew over 50,000 members on different facebook tech communities sharing opporunities and growth to them: https://www.facebook.com/azaynul123/ When I joined the Google AI community group TensorFlow User Group Bangladesh as organizer there weren't so much activity but after joining this community we were able to win grandmaster award 2 times and it was first time for Bangladeshi community to have taken 92+ events in a single year. We also organized ML Olympiad 2023, 2024 , Keras Community Day 2023 physically in Brac University, 3 of our community members also won global awards from google for taking highest events: https://www.linkedin.com/posts/zaynul-abedin-miah_vertexai-google-machinelearning-activity-7292131729782280192-8rRc?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAACJvR6sBLMfFJjZ96ahnmku97wrMGgU6eIM . I was the only person in Bangladesh got featured 4 times by Google: June: https://lnkd.in/g6W5FVJv ,
+April: https://lnkd.in/gB5bb5_U , https://medium.com/google-developer-experts/nov-ml-community-highlights-and-achievements-03a78e9e1449 , https://l.facebook.com/l.php?u=https%3A%2F%2Fmedium.com%2Fgoogle-developer-experts%2Fjan-2025-ai-community-activity-highlights-and-achievements-64c233e7a194%3Ffbclid%3DIwZXh0bgNhZW0CMTAAYnJpZBExSjUyMW5OeE52aFpCZWhpMwEeOTIFl3kfYUpdtQbeQou2cvfvk3gWS8j0Q9syVJRJdHbNp5BbpZSqJOHKgyI_aem_X-KMnGxlHezy-gn4kZSapg&amp;h=AT0upLN1j_59jKo21WNSAOL0rD8O2LNT71a5O8M9Xs4w9bvKUNeiZnPcqZKAac-yDIE-LMtif4SzMKNlabDlUda2KK9KU-nTx1hANKEtV2xF0NksId2vVTnrlDmPhwUHNvfWXPo33CzFv2UU&amp;__tn__=-UK*F . Also I took ml paper reading club session recently one by myself and other with supervisor on her research paper which is titled:  Video Analytics for Activity Profiling, Fall &amp; Unstable Motion Detection and it got massive response on Facebook within 2 days it got 2.7K views and after this event many student started doing research work under her supervision: https://youtube.com/playlist?list=PLHGDyeOCXVQfDHoouVp7YF_LEbdjh8JGz&amp;si=A7xqiG55myR6HjIE ,  https://www.facebook.com/bdaiml . Contributed to kubernetes and got over 30+ PR approved, member of kubernetes org and kubernetes sigs. Got Dan Kohn Scholarship by Linux Foundation for Kubecon India 2024: https://www.linkedin.com/posts/zaynul-abedin-miah_opensource-kubernetescommunity-techjourney-activity-7261637965020307458-GGZz?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAACJvR6sBLMfFJjZ96ahnmku97wrMGgU6eIM .</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr"/>
@@ -6109,28 +6208,30 @@
       <c r="I298" t="inlineStr"/>
     </row>
     <row r="299">
-      <c r="A299" s="2" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
+      <c r="A299" s="2" t="n">
+        <v>246</v>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>Nura</t>
+          <t>Fady</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>Sufiyanu</t>
+          <t>Nabil</t>
         </is>
       </c>
       <c r="D299" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+To improve myself and learn more and support my community to use PyTorch in their projects and as a AWS Community Builder and Google Expert I have my community and need to support them with latest updates
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E299" s="2" t="inlineStr"/>
@@ -6620,28 +6721,33 @@
       <c r="I325" t="inlineStr"/>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
+      <c r="A326" s="2" t="n">
+        <v>244</v>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>Omkar</t>
+          <t>Abdulhayyu</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>Kabde</t>
+          <t>Abubakar</t>
         </is>
       </c>
       <c r="D326" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Create engaging Twitter threads and reels
+Run community challenges or campaigns
+Host or co-host Spaces for awareness
+Tap into my network of Web3 communities for partnerships and collaborations
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+No</t>
         </is>
       </c>
       <c r="E326" s="2" t="inlineStr"/>
@@ -7131,28 +7237,38 @@
       <c r="I352" t="inlineStr"/>
     </row>
     <row r="353">
-      <c r="A353" s="2" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
+      <c r="A353" s="2" t="n">
+        <v>241</v>
       </c>
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t>Ismail</t>
+          <t>Omkar</t>
         </is>
       </c>
       <c r="C353" s="2" t="inlineStr">
         <is>
-          <t>Feranmi</t>
+          <t>Kabde</t>
         </is>
       </c>
       <c r="D353" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am an active contributor to Pytorch Repositories (specifically core pytorch and torchtune) and I aim to continue doing so. Resolving issues and submitting PRs has made me understand pytorch repositories better and I want to learn what PyTorch actually does under its hood, which will help me write in-depth technical content as I learn. I've previously created technical content (tutorials and example notebooks) for IOOS (under Google Summer of Code) and I will create content for Pytorch as well (blogs, tweets, tutorials and examples).  
+Another thing that I have in mind is - A GitHub repo (and a series of blogs/tweets) called `PyTorch-Visual` visualizing how basic methods like `squeeze`, `permute`, `view`, `reshape`, etc work. This is a basic but fundamental thing that most people overlook while writing code (including me). Think of it as an illustrated guide to the working of PyTorch.  
+I am a member of my college's open-source club and I give talks about contributing to open-source in general. The club regularly conducts sessions on technologies like FastAPI, Pandas, etc and I want to start an introductory series `Getting Started with PyTorch` or `PyTorch is all you need` (LOL) to help juniors learn (and maybe contribute to) PyTorch.  
+I've also worked on implementing various research papers in PyTorch and converting TF/Keras codes to PyTorch and I aim to do this for new paper releases as well(in case they haven't open-sourced their code). Few of my paper implementations - https://github.com/omkar-334/agri-ml, https://github.com/omkar-334/HateMM-benchmarks  
+Back when I was in first year of college, I had come across the Tensorflow User Group of my city (Hyderabad) and I wondered why isn't there a PyTorch User Group... I want to organize meetups in Hyderabad for PyTorch enthusiasts and contributors (baby steps), then maybe set up a PyTorch User Group. (maybe one dayPyTorch Conference can be hosted in India!!)
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I was a contributor at Google Summer of Code last year, which enhanced my interests in contributing to OpenSource. Since then I've contributed to various repos like Runpod, Keras, DataFormer, Pytorch, etc.  
+I was an intern at Indian Institute of Technology, Indore, where I had performed research on multimodal hate-speech detection. Our model and the baseline comparison models were implemented in pytorch by me, and the research paper has been accepted to the ACL 2025 Main conference. Most/All of my AI-ML work is done using PyTorch (very grateful for it).  
+I am currently a research intern at Indian Institute of Science, working on time series forecasting and guess what, All of it still involves PyTorch, which only proves the fact that PyTorch is used in all fields of AI/ML.  
+As Yann LeCun said (https://x.com/hardmaru/status/1929363747568762892), The AI industry as you see it now wouldn't have existed without PyTorch.  
+Thank you!</t>
         </is>
       </c>
       <c r="E353" s="2" t="inlineStr"/>
@@ -7642,28 +7758,38 @@
       <c r="I379" t="inlineStr"/>
     </row>
     <row r="380">
-      <c r="A380" s="2" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
+      <c r="A380" s="2" t="n">
+        <v>234</v>
       </c>
       <c r="B380" s="2" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Ediomo</t>
         </is>
       </c>
       <c r="C380" s="2" t="inlineStr">
         <is>
-          <t>Winner</t>
+          <t>Udoekere</t>
         </is>
       </c>
       <c r="D380" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As an ambassador, I would leverage my skills and experience to:
+- Promote the project's mission and values
+- Engage with the community and provide support
+- Organize events and activities to drive growth and adoption
+- Collaborate with the team to develop strategic initiatives
+- Provide valuable feedback and insights to enhance the platform
+- create valuable and high quality content to further enhance the awareness of PyTorch
+- Represent PyTorch in online and real life events further promoting the awareness as well. 
+I am excited about the opportunity to join the ambassador program and contribute to the growth and success of the community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://linktr.ee/acquiliq?utm_source=linktree_profile_share&amp;ltsid=2251391b-023b-4318-b0c1-b903ac60b029</t>
         </is>
       </c>
       <c r="E380" s="2" t="inlineStr"/>
@@ -8153,10 +8279,8 @@
       <c r="I406" t="inlineStr"/>
     </row>
     <row r="407">
-      <c r="A407" s="2" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
+      <c r="A407" s="2" t="n">
+        <v>228</v>
       </c>
       <c r="B407" s="2" t="inlineStr">
         <is>
@@ -8166,11 +8290,18 @@
       <c r="C407" s="2" t="inlineStr"/>
       <c r="D407" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I intend to offer services within the range of my skills. Some of which are:
+Creating contents ( articles, threads, memes), digital art making (infographics and videos) to publicize the project to the mass and also educating them.
+The fact that I am shameless and passionate about my job is also a feature I can offer ecause this gives me an edge over others as I am able to go the extra mile to get things done.
+In a nutshell, I am always at the front and out there ensuring that the project reaches its utmost potential while delivering more.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I've read through the project and I'll say it's amazing with my in-depth knowledge with web3 and the decentralization I'll help promote and develope the project with content creation, graphic design moderation in my local language and also translate articles.</t>
         </is>
       </c>
       <c r="E407" s="2" t="inlineStr"/>
@@ -8660,28 +8791,30 @@
       <c r="I433" t="inlineStr"/>
     </row>
     <row r="434">
-      <c r="A434" s="2" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
+      <c r="A434" s="2" t="n">
+        <v>227</v>
       </c>
       <c r="B434" s="2" t="inlineStr">
         <is>
-          <t>Alireza</t>
+          <t>Ahsan</t>
         </is>
       </c>
       <c r="C434" s="2" t="inlineStr">
         <is>
-          <t>Hosseini</t>
+          <t>Umar</t>
         </is>
       </c>
       <c r="D434" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+nan
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E434" s="2" t="inlineStr"/>
@@ -9171,28 +9304,30 @@
       <c r="I460" t="inlineStr"/>
     </row>
     <row r="461">
-      <c r="A461" s="2" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
+      <c r="A461" s="2" t="n">
+        <v>222</v>
       </c>
       <c r="B461" s="2" t="inlineStr">
         <is>
-          <t>Derbew</t>
+          <t>Shrutakeerti</t>
         </is>
       </c>
       <c r="C461" s="2" t="inlineStr">
         <is>
-          <t>Felasman</t>
+          <t>Datta</t>
         </is>
       </c>
       <c r="D461" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I’ll dive headfirst into the community with the enthusiasm of a coder debugging their first “it works! ” moment—actively sparking engagement by hosting vibrant, hands-on hackathons that challenge participants to push PyTorch to its limits and unleash creative AI projects. I'll host live, interactive streams such as "Debug with Me," where I'll freely share the dirty, gritty reality of PyTorch coding, making every bug a learning opportunity and every solution a shared triumph. Through regular Torch Talks each month, I'll distill difficult PyTorch concepts into bite-sized, entertaining sessions that will equip anyone from novice to expert to improve their skills. Mentorship isn’t just a checkbox—I’ll build a thriving mentorship network called “Torch Guides,” matching eager newcomers with seasoned devs for focused sprints in areas like computer vision, NLP, and reinforcement learning, culminating in mini-project showcases that celebrate growth and creativity. Beyond digital spaces, I’ll take PyTorch to underrepresented regions with grassroots AI labs and workshops, translating tutorials into local languages and ensuring diversity and inclusion are baked into every initiative. I’m passionate about creating a culture where PyTorch isn’t just a tool but a vibrant, welcoming movement that fuels innovation, collaboration, and empowerment—turning curiosity into mastery and coders into torchbearers for AI’s future.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Yo, the nominee is no stranger to hustle and leadership! They rocked it as an Unstop Ambassador, where they turned networking into an art form, and slayed as the Machine Learning Co-Lead at GDG, running squads and leveling up the ML game for the community. They didn’t stop there—picked as a DEV3PACK Fellow and an ML Fellow at Fellowship.ai, proving they don’t just talk AI, they live and breathe it. Plus, they’ve crushed multiple internships, stacking real-world experience like boss moves in their coding playbook. With this mix of street cred and deep tech chops, they’re ready to blaze trails as a PyTorch Ambassador, bringing the vibes, the skills, and the mad passion to keep the community lit and learning nonstop.</t>
         </is>
       </c>
       <c r="E461" s="2" t="inlineStr"/>
@@ -9682,28 +9817,39 @@
       <c r="I487" t="inlineStr"/>
     </row>
     <row r="488">
-      <c r="A488" s="2" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
+      <c r="A488" s="2" t="n">
+        <v>219</v>
       </c>
       <c r="B488" s="2" t="inlineStr">
         <is>
-          <t>Saagara</t>
+          <t>Derbew</t>
         </is>
       </c>
       <c r="C488" s="2" t="inlineStr">
         <is>
-          <t>Baiju</t>
+          <t>Felasman</t>
         </is>
       </c>
       <c r="D488" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+nan
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+As a PyTorch Ambassador, I would actively promote the adoption and effective use of PyTorch within my academic, professional, and online communities. Drawing from my background as a university lecturer and content creator, I would contribute in the following ways:
+	1.	Community Education and Engagement
+I plan to organize regular workshops, webinars, and hands-on labs on PyTorch fundamentals, deep learning, and generative AI applications. These events will be tailored for students, researchers, and developers, especially in underrepresented regions like East Africa, to help them build practical skills using PyTorch.
+	2.	Content Creation and Localization
+I will create high-quality educational content—tutorials, videos, blog posts, and code walkthroughs—focusing on real-world use cases of PyTorch. Where relevant, I’ll localize this content into regional languages to broaden accessibility and engagement.
+	3.	Mentorship and Collaboration
+I will mentor aspiring ML practitioners through bootcamps and open-source contribution initiatives, encouraging them to use and contribute to the PyTorch ecosystem. I’ll also foster collaborations between academia and industry by showcasing PyTorch-powered projects and research.
+	4.	Advocacy and Representation
+I will represent PyTorch at conferences, AI community meetups, and educational panels, advocating for ethical, inclusive, and impactful AI development using PyTorch. I’m committed to bridging the knowledge gap in AI education and showcasing PyTorch as a powerful and approachable framework for learners at all levels.
+By serving as a dedicated educator, content creator, and community builder, I aim to amplify PyTorch’s impact across educational and professional spheres and help nurture the next generation of machine learning practitioners.</t>
         </is>
       </c>
       <c r="E488" s="2" t="inlineStr"/>
@@ -10193,28 +10339,31 @@
       <c r="I514" t="inlineStr"/>
     </row>
     <row r="515">
-      <c r="A515" s="2" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
+      <c r="A515" s="2" t="n">
+        <v>217</v>
       </c>
       <c r="B515" s="2" t="inlineStr">
         <is>
-          <t>Onics</t>
+          <t>Saagara</t>
         </is>
       </c>
       <c r="C515" s="2" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Baiju</t>
         </is>
       </c>
       <c r="D515" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am actively transitioning back into AI research, bringing with me a strong foundation in software engineering and a growing portfolio in machine learning. During my tenure at Oracle, I demonstrated exceptional organizational and oratory skills by leading and hosting large-scale hackathons and training initiatives across the APAC and EMEA regions. Additionally, I served as a Section Leader for Stanford’s Code in Place, where I mentored students through Python fundamentals and guided them with hands-on practice.
+As a PyTorch Ambassador, I am confident in my ability to contribute meaningfully to the community by organizing events, creating high-quality technical content, speaking at conferences, and mentoring new users.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E515" s="2" t="inlineStr"/>
@@ -10704,28 +10853,32 @@
       <c r="I541" t="inlineStr"/>
     </row>
     <row r="542">
-      <c r="A542" s="2" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
+      <c r="A542" s="2" t="n">
+        <v>213</v>
       </c>
       <c r="B542" s="2" t="inlineStr">
         <is>
-          <t>Akilsurya</t>
+          <t>Mukhammad</t>
         </is>
       </c>
       <c r="C542" s="2" t="inlineStr">
         <is>
-          <t>Sivakumar</t>
+          <t>Rafsanjani</t>
         </is>
       </c>
       <c r="D542" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I aim to actively contribute to the growth and vitality of the PyTorch community, especially in Southeast Asia, by making PyTorch more accessible and approachable for learners, practitioners, and researchers
+- Building Local Language Content: To lower the barrier for non-English speakers, I plan to create high-quality educational content, such as blog posts, YouTube videos, and Jupyter notebooks in Bahasa Indonesia, covering key PyTorch topics with practical case studies relevant to the region (e.g., Telecommunicatiom, healthcare, education).
+- Community Mentorship: I will dedicate time to mentoring aspiring AI practitioners and students by helping them with open-source contributions, portfolio projects using PyTorch, and preparing for research or industry roles. I’ve previously mentored students in AI internships and will bring that experience to this role.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E542" s="2" t="inlineStr"/>
@@ -11215,28 +11368,35 @@
       <c r="I568" t="inlineStr"/>
     </row>
     <row r="569">
-      <c r="A569" s="2" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="A569" s="2" t="n">
+        <v>209</v>
       </c>
       <c r="B569" s="2" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Kelvin</t>
         </is>
       </c>
       <c r="C569" s="2" t="inlineStr">
         <is>
-          <t>Seng</t>
+          <t>Rotich</t>
         </is>
       </c>
       <c r="D569" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am an AI/ML engineer dedicated to expanding access to digital skills to more people. I work particularly with the youth from underrepresented communities (through an organization known as LivingForOthers-livingforothers.or.ke) in parts of Nairobi, Kenya and Rural Kenya. These are places where opportunities to engage with cutting-edge technologies like machine learning are often limited albeit there are some wonderful talent that just need honing and mentoring. 
+Getting an opportunity to be a PyTorch Ambassador will be an opportunity for me to leverage my experience and network to create sustainable, inclusive programming that not only spreads PyTorch knowledge but helps youth from underserved backgrounds envision and build their futures in technology.
+I would particularity be interested in helping organize some Intro-to-PyTorch bootcamps focused on practical ML applications, tailored to youth in these areas.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I also serve as a member of the Outreach Committee for the Internet Society (Kenya Chapter). Through this role, I have been deeply involved in developing and executing strategies to engage underserved populations, advocate for digital equity, and support community-led initiatives focused on access and capacity building.
+I have also been selected for and participated in several AI-focused programs like the AI2Amplify Fellowship organized by Goethe Institute in Germany. My project was selected as one of the best in the fellowship!
+You can learn more about the project in this particular fellowship here:
+https://www.goethe.de/prj/aia/en/wt/dig.html</t>
         </is>
       </c>
       <c r="E569" s="2" t="inlineStr"/>
@@ -11726,28 +11886,56 @@
       <c r="I595" t="inlineStr"/>
     </row>
     <row r="596">
-      <c r="A596" s="2" t="inlineStr">
-        <is>
-          <t>203</t>
-        </is>
+      <c r="A596" s="2" t="n">
+        <v>205</v>
       </c>
       <c r="B596" s="2" t="inlineStr">
         <is>
-          <t>Kunal</t>
+          <t>Koki</t>
         </is>
       </c>
       <c r="C596" s="2" t="inlineStr">
         <is>
-          <t>Mishra</t>
+          <t>Mitsunami</t>
         </is>
       </c>
       <c r="D596" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would bring a unique ability to bridge the gap between cutting-edge deep learning research and practical deployment for production, particularly in resource-constrained environments like mobile and embedded systems. With a strong track record of making advanced ML concepts accessible, I have consistently empowered developers to bring models from experimentation to real-world applications.
+I have authored in-depth technical blogs on topics such as optimizing inference on Arm architectures, efficient deployment strategies for mobile platforms, and using ML-Agents for mobile gaming. Through online tutorials, I’ve also guided developers in deploying AI models to mobile, demonstrating their ability to translate ecosystem-agnostic deployment challenges into actionable workflows for the broader ML community.
+As a PyTorch Ambassador, I plan to:
+- Lead community education by creating content and tutorials that explain advanced workflows like post-training quantization, QAT, and PyTorch-to-ExecuTorch conversion.
+- Mentor developers and researchers, especially those working on mobile AI, edge computing, and gaming applications, through office hours, code reviews, and Discord or forum engagement.
+- Collaborate across the ecosystem, surfacing feedback to the PyTorch team and helping shape tools that improve deployment interoperability, performance, and ease of use.
+- Deliver talks that provide hands-on guidance for getting PyTorch models ready for production on diverse hardware.
+My cross-framework experience and community-minded approach make me an ideal ambassador to help PyTorch thrive across research, development, and deployment domains, especially where performance and portability are key.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I have been deeply engaged in educating and supporting the ML and developer community through blogs, public talks, and tutorials — especially in the areas of model deployment, hardware acceleration, and cross-framework integration for mobile and edge applications.
+[Blogs &amp; Tutorials]
+- Blog on PyTorch app with Android NNAPI – In this blog, I walk through how to enable and utilize Android NNAPI with PyTorch to accelerate inference on mobile devices, covering integration tips and performance benchmarks.
+https://community.arm.com/arm-community-blogs/b/ai-blog/posts/improve-pytorch-app-performance-with-android-nnapi-support-386430784
+- Blog series on ML-Agents with Unity for Mobile Gaming – I’ve written blog posts exploring reinforcement learning and inference optimization for mobile game environments using Unity ML-Agents.
+https://community.arm.com/arm-community-blogs/b/mobile-graphics-and-gaming-blog/posts/1-unity-ml-agents-arm-game-ai
+https://community.arm.com/arm-community-blogs/b/ai-blog/posts/p1-multi-agent-reinforcement-learning
+- Blog on Arm CPU architectures – I’ve authored technical content to explain Arm's new SIMD architecture for enabling increased AI capabilities.
+https://community.arm.com/arm-community-blogs/b/architectures-and-processors-blog/posts/sve2
+- Tutorials on a Android chatbot application – I’ve created online tutorials that walk through converting and deploying ONNX models to mobile, helping bridge the gap from PyTorch training pipelines to production-ready mobile apps.
+https://learn.arm.com/learning-paths/mobile-graphics-and-gaming/build-android-chat-app-using-onnxruntime/
+[Conference Talks]
+- Optimizing Stable Diffusion for Mobile – I presented techniques for compressing and accelerating Stable Diffusion models for mobile inference, including quantization strategies at GDC (Game Developers Conference).
+https://www.youtube.com/watch?v=1vnKPLFxs0g&amp;list=PLKjl7IFAwc4SSrROtKwHtcidGv7F6Wwi-&amp;index=9
+- Talks at CEDEC (Japan), AI and Games Summer School (UK), and GDC (US) – I’ve given multiple talks on using ML-Agents for game development and deploying reinforcement learning models in interactive, real-time environments.
+https://school.gameaibook.org/2023-school/
+- Talk on Arm64EC, a new way of building apps for Windows on ARM – delivered a technical talk focused on modern compile workflows for Windows on ARM, which has direct relevance for deploying PyTorch models on ARM64 Windows devices.
+https://developer.arm.com/Additional%20Resources/Video%20Tutorials/DevHub/Arm64EC%20-%20ABI%20for%20Mixing%20x64%20and%20Arm64
+https://developer.arm.com/Additional%20Resources/Video%20Tutorials/DevHub/ARM64EC%20-%20A%20new%20way%20of%20building%20apps%20for%20Windows%2011%20on%20Arm
+These efforts reflect my commitment to open knowledge-sharing, practical tooling, and supporting developers as they bring PyTorch models from research to production—especially in constrained or emerging platforms like mobile and embedded systems.</t>
         </is>
       </c>
       <c r="E596" s="2" t="inlineStr"/>
@@ -12237,10 +12425,8 @@
       <c r="I622" t="inlineStr"/>
     </row>
     <row r="623">
-      <c r="A623" s="2" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
+      <c r="A623" s="2" t="n">
+        <v>198</v>
       </c>
       <c r="B623" s="2" t="inlineStr">
         <is>
@@ -12254,11 +12440,16 @@
       </c>
       <c r="D623" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am currently managing a team of software developers at Intel Mexico that recently engaged in optimizations for PyTorch at Intel Hardware. And recently we have been training other engineering areas in the company in ML and DL topics using PyTorch as the AI Framework to use.
+I would like to increase the visibility and of the framework in Mexico by developing content in Spanish and acting as a mentor for newcomers and academic institutions, with the objective of developing a more mature ecosystem in Mexico and later expand to other Latin-America regions.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E623" s="2" t="inlineStr"/>
@@ -12748,10 +12939,8 @@
       <c r="I649" t="inlineStr"/>
     </row>
     <row r="650">
-      <c r="A650" s="2" t="inlineStr">
-        <is>
-          <t>194</t>
-        </is>
+      <c r="A650" s="2" t="n">
+        <v>194</v>
       </c>
       <c r="B650" s="2" t="inlineStr">
         <is>
@@ -12765,11 +12954,24 @@
       </c>
       <c r="D650" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+0. Throughout my career — from building robotic perception systems at Dyson to optimising cloud and edge inference at Arm — I’ve seen firsthand how powerful PyTorch is when applied in the real world. But I’ve also seen how inaccessible AI can feel to students, early-career engineers, and people from underrepresented backgrounds who don’t have the same starting points or support.
+1. As a PyTorch Ambassador, my goal is to break those barriers — to make AI more accessible and inclusive, not just for professionals, but for students, beginners, and underrepresented groups. I want to help bridge the gap between curiosity and capability, especially in communities where exposure to AI is limited.
+2. To do that, I plan to organise outreach programs with schools and universities — particularly in areas where AI education is lacking. These sessions will be practical, hands-on, and built around showing students that AI isn’t just for researchers — it’s for them too. I’ll use PyTorch as the gateway, helping them build small but meaningful projects they can be proud of.
+3. I’m also committed to supporting women in tech and other underrepresented groups through mentorship, community building, and inclusive events. In my current and past roles, I’ve mentored junior engineers (including women starting out in AI), run internal training sessions, and helped early-career team members ship their first PyTorch models into production.
+4. Beyond that, I’ll keep contributing as a technical educator. I’ve deployed PyTorch models in production at Dyson (robotic stain detection, segmentation, depth estimation) and at Arm (quantization, compiler integration, benchmarking). I plan to share that experience through open-source examples, blog posts, workshops, and real-world case studies focused on deployment, not just prototyping.
+5. This mix of technical experience, mentorship, and a clear passion for outreach means I’m ready to help build a PyTorch community that is not only capable, but diverse and inclusive. One that reflects the real world — and builds for it too.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+You can check out some of my work on GitHub.com/usamahz, especially around ML systems, robotics, and deployment workflows. I’ve worked at Dyson Robotics on real-time edge perception systems and now at Arm, where I focus on PyTorch models for Arm CPUs and NPUs along with other frameworks such as OneDNN, plus more.
+I’ve mentored over 10 engineers and interns, ran internal training sessions, and built ML tooling used across teams. I believe AI should be usable, teachable, and welcoming — and I’d bring that mindset to everything I do as a PyTorch Ambassador in the United Kingdom!
+LinkedIn: linkedin.com/in/usamahzaheer
+Github: GitHub.com/usamahz
+Website: usamah.me</t>
         </is>
       </c>
       <c r="E650" s="2" t="inlineStr"/>
@@ -13259,10 +13461,8 @@
       <c r="I676" t="inlineStr"/>
     </row>
     <row r="677">
-      <c r="A677" s="2" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
+      <c r="A677" s="2" t="n">
+        <v>188</v>
       </c>
       <c r="B677" s="2" t="inlineStr">
         <is>
@@ -13276,11 +13476,15 @@
       </c>
       <c r="D677" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+With years of AI/ML experience, I have provided pytorch distributed training to the local internet customers when i worked for NVIDIA two years ago, and now, i worked for the AMD AI team, mainly focus on the Pytorch training/inference on AMD Rocm platform. Once selected, i will continue providing customer-oriented training and actively engaged in the pytorch eco-system activities. Thanks so much!
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E677" s="2" t="inlineStr"/>
@@ -13770,28 +13974,30 @@
       <c r="I703" t="inlineStr"/>
     </row>
     <row r="704">
-      <c r="A704" s="2" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
+      <c r="A704" s="2" t="n">
+        <v>174</v>
       </c>
       <c r="B704" s="2" t="inlineStr">
         <is>
-          <t>Zhiqing</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="C704" s="2" t="inlineStr">
         <is>
-          <t>Xiao</t>
+          <t>Sabaa</t>
         </is>
       </c>
       <c r="D704" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I will actively support and grow the PyTorch community by sharing knowledge, helping others, and organizing useful events. I enjoy working with machine learning and open-source tools, and I want to make it easier for others to learn and use PyTorch. I plan to host workshops and hands-on sessions—both online and in person—to teach topics like computer vision and natural language processing using PyTorch. I’ll also answer questions on forums, create easy-to-follow tutorials, and help translate resources into other languages to reach more people. Mentoring students and beginners is important to me, and I want to guide them through their learning journey by offering support and practical advice. Through all these activities, I hope to create a welcoming and helpful environment where everyone can learn, share, and grow with PyTorch.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E704" s="2" t="inlineStr"/>
@@ -14281,28 +14487,32 @@
       <c r="I730" t="inlineStr"/>
     </row>
     <row r="731">
-      <c r="A731" s="2" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
+      <c r="A731" s="2" t="n">
+        <v>172</v>
       </c>
       <c r="B731" s="2" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Mitzuko</t>
         </is>
       </c>
       <c r="C731" s="2" t="inlineStr">
         <is>
-          <t>Sabaa</t>
+          <t>Callañaupa</t>
         </is>
       </c>
       <c r="D731" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I currently work at the National University of San Antonio Abad del Cusco, the largest academic institution in southern Peru, within the Vice-Rectorate for Research. I have organized several AI and technology events, and now aim to focus on more technical and specialized gatherings.
+As an ambassador, my goal is to foster the use of advanced frameworks like PyTorch, promoting their application in real-world projects and industrial challenges. I am also committed to building a vibrant community of developers and data scientists, creating spaces for knowledge exchange and technical collaboration.
+My primary focus is on NPL using PyTorch, although I occasionally use TensorFlow and JAX. This ambassador role will allow me to deepen my expertise in PyTorch and share this knowledge with my community, empowering the next generation of AI professionals.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://www.linkedin.com/in/mitzukodavis/</t>
         </is>
       </c>
       <c r="E731" s="2" t="inlineStr"/>
@@ -14792,28 +15002,30 @@
       <c r="I757" t="inlineStr"/>
     </row>
     <row r="758">
-      <c r="A758" s="2" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
+      <c r="A758" s="2" t="n">
+        <v>171</v>
       </c>
       <c r="B758" s="2" t="inlineStr">
         <is>
-          <t>Madan</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="C758" s="2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>RAHMAN</t>
         </is>
       </c>
       <c r="D758" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+providing mentorship, actively contributing to pytorch community
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+i was an active contributer to community driven computer vision course hosted by huggingface https://huggingface.co/learn/computer-vision-course/en/unit0/welcome/welcome</t>
         </is>
       </c>
       <c r="E758" s="2" t="inlineStr"/>
@@ -15303,10 +15515,8 @@
       <c r="I784" t="inlineStr"/>
     </row>
     <row r="785">
-      <c r="A785" s="2" t="inlineStr">
-        <is>
-          <t>168</t>
-        </is>
+      <c r="A785" s="2" t="n">
+        <v>168</v>
       </c>
       <c r="B785" s="2" t="inlineStr">
         <is>
@@ -15320,11 +15530,18 @@
       </c>
       <c r="D785" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, the nominee would play an active role in fostering a vibrant and inclusive community. They plan to engage with the PyTorch ecosystem by contributing educational content, including tutorials, blog posts, and open-source code, tailored to both beginners and advanced users. Their focus will be on demystifying complex concepts in deep learning, especially through practical projects and hands-on workshops.
+The nominee intends to organize regular events such as local meetups, online webinars, and PyTorch hackathons that encourage collaboration, learning, and innovation. These events would not only promote the adoption of PyTorch but also provide a platform for community members to share their projects and ideas.
+Mentorship is a core part of their vision. They aim to support early-career developers and students by offering guidance on PyTorch fundamentals, research applications, and real-world deployment strategies. Through structured mentorship programs and open office hours, the nominee will help community members overcome challenges and grow their skills.
+By sharing their own journey and actively listening to the community's needs, the nominee will help shape a more inclusive and accessible PyTorch initiative that welcomes learners from diverse backgrounds.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E785" s="2" t="inlineStr"/>
@@ -15814,28 +16031,44 @@
       <c r="I811" t="inlineStr"/>
     </row>
     <row r="812">
-      <c r="A812" s="2" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
+      <c r="A812" s="2" t="n">
+        <v>160</v>
       </c>
       <c r="B812" s="2" t="inlineStr">
         <is>
-          <t>Stephen</t>
+          <t>Ephraim</t>
         </is>
       </c>
       <c r="C812" s="2" t="inlineStr">
         <is>
-          <t>Watt</t>
+          <t>Mwereza</t>
         </is>
       </c>
       <c r="D812" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Ephraim Mwereza would be an exceptional PyTorch Ambassador, combining technical depth with a passion for community growth and real-world impact. Based in Kenya, he is the founder of AlphaTwin — an assistive AI startup focused on inclusive technologies — and the winner of the Microsoft Data + AI Hack Kenya 2025.
+As an ambassador, Ephraim plans to:
+Host community workshops and webinars focused on real-world use cases of PyTorch (e.g., Retrieval-Augmented Generation for public sector applications like education and healthcare).
+Mentor early-stage developers and students, especially in underrepresented communities across East Africa, helping them learn and apply PyTorch for social good.
+Contribute educational content, including tutorials, translated resources, and implementation walkthroughs for region-specific challenges.
+Serve as a bridge between local needs and the global PyTorch roadmap by sharing feedback, success stories, and innovation narratives from Africa’s tech ecosystem.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+🎓 Blog: 
+Empowering Access to Higher Education with AI using Microsoft Fabric and azure OpenAI service (https://blog.fabric.microsoft.com/en-US/blog/announcing-the-winners-of-hack-together-the-microsoft-data-ai-kenya-hack/)
+First Prize Innovator ( Special Needs AI Hackathon ) Africa AI Innovation Summit, 2024(https://africabusinessnews.co.ke/innovators-awarded-showcasing-local-artificial-intelligence-ai-solutions-for-special-needs-education/)
+🎥 Demo Video:
+   Microsoft Data + AI Hack Kenya 2025 demo (https://youtu.be/3c6DPHJVDDc?si=RcV1CzBSN8GhYPB4)
+   African Development Bank Annual Meeting's Africa AI Innovation Summit (Nairobi, Kenya, May 28th, 2024) feature.: https://youtu.be/NJEiq6P-j30?si=6CFSS4Zlld-DJX1g
+   Eastern Africa Subregion Forum on AI (EAFRAI) 2024 feature: https://youtu.be/6y6zs5kAE48?si=EOVvpIjGrQzOnTQT
+🏆 Winner – Microsoft Data + AI Hack Kenya 2025, Special Needs AI hackathon 2024, Kenya
+🧠 Areas of expertise: AI / ML Engineer, Assistive Tech, Community AI
+💼 LinkedIn: https://www.linkedin.com/in/ephraim-mwereza-9675981a4/</t>
         </is>
       </c>
       <c r="E812" s="2" t="inlineStr"/>
@@ -16325,28 +16558,36 @@
       <c r="I838" t="inlineStr"/>
     </row>
     <row r="839">
-      <c r="A839" s="2" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
+      <c r="A839" s="2" t="n">
+        <v>157</v>
       </c>
       <c r="B839" s="2" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Meetish</t>
         </is>
       </c>
       <c r="C839" s="2" t="inlineStr">
         <is>
-          <t>Nazif</t>
+          <t>Dave</t>
         </is>
       </c>
       <c r="D839" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Engage, grow and thrive an online and in-person with Pytorch community with Pytorch labs in 
+- Georgia Tech, Atlanta
+- GSU
+- Greater Atlanta area
+Publish tutorials, how to guides, demos etc for local and extended communities.
+Partner with Microsoft, Delta, Coca cola Data science/Gen-AI teams to evangelize pytorch.
+Drive budget requests/GPU giveaways with AMD Instinct Leadership incorporating it into my quaterly roadmap planning and execution cycles.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Experience working across ServiceNow, AWS and AMD equips me with bringing together experts across SaaS, PaaS, IaaS and hardware to contribute to pytorch and the community in a holistic way</t>
         </is>
       </c>
       <c r="E839" s="2" t="inlineStr"/>
@@ -16836,28 +17077,33 @@
       <c r="I865" t="inlineStr"/>
     </row>
     <row r="866">
-      <c r="A866" s="2" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
+      <c r="A866" s="2" t="n">
+        <v>155</v>
       </c>
       <c r="B866" s="2" t="inlineStr">
         <is>
-          <t>Md</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="C866" s="2" t="inlineStr">
         <is>
-          <t>Tanvir</t>
+          <t>Ribeiro</t>
         </is>
       </c>
       <c r="D866" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+The nominee is a Professor in the Graduate Program in Industrial and Systems Engineering at the Pontifical Catholic University of Paraná, Brazil.
+His research involves the use of PyTorch to develop and explore artificial neural networks applied to real-world industrial problems.
+As part of his efforts to disseminate PyTorch, he created a graduate-level course titled Artificial Neural Networks Engineering, which focuses on practical implementations using PyTorch. This course is one of the few comprehensive educational resources on neural networks available entirely in Portuguese: github.com/vhrique/anne_ptbr.
+He is committed to continuing this work by developing additional educational materials and tutorials in Portuguese, aiming to make PyTorch more accessible to the broader Portuguese-speaking community
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E866" s="2" t="inlineStr"/>
@@ -17347,28 +17593,46 @@
       <c r="I892" t="inlineStr"/>
     </row>
     <row r="893">
-      <c r="A893" s="2" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
+      <c r="A893" s="2" t="n">
+        <v>153</v>
       </c>
       <c r="B893" s="2" t="inlineStr">
         <is>
-          <t>Meetish</t>
+          <t>Eikan</t>
         </is>
       </c>
       <c r="C893" s="2" t="inlineStr">
         <is>
-          <t>Dave</t>
+          <t>Wang</t>
         </is>
       </c>
       <c r="D893" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Eikan is PyTorch TAC member and has played a critical role in enhancing the C++/OpenMP backend for TorchInductor, delivering significant performance improvements for key models and benchmarks. He designed a new pluggable backend registration mechanism that simplifies the process for new hardware integration. Additionally, he contributed to "Eager through torch.compile," enabling automatic kernel generation for ATen operations, and extended support for Intel GPUs within Inductor using Triton. 
+In addition, Eikan has been a key contributor to Intel GPU integration, defining its roadmap and aligning it with PyTorch's design philosophy. As the lead architect, he has been deeply involved in all Intel GPU components, including runtime, eager mode, and torch.compile, and has reviewed almost all Intel GPU-related PRs. Eikan’s work extends beyond Intel GPU, contributing to the generalization of the PyTorch runtime for broader accelerator support and working on making PyTorch’s distributed framework device-neutral. 
+Torch.compile
+• C++/OpenMP Backend: Eikan collaborated closely with Jason(@jansel), Bin(@desertfire), and Horace(@Chillee) to design and implement the C++/OpenMP backend of Inductor. One of his notable achievements was optimizing the TorchInductor C++/OpenMP backend, resulting in a significant improvement in the performance of the HF model from 0.97x to 1.2x prior to the first torch.compile announcement in PT 2.0. Eikan’s enabling work was featured in Jason’s presentation at the PyTorch Conference 2022. After the PT 2.0 announcement, Eikan continued to work with community contributors to enhance the Dynamo benchmarks through vectorization and further maturation of the C++/OpenMP backend - CPU backend performance update and deep dive on key optimizations
+    - Single-Socket Multi-threads, torchbench: 1.39x, huggingface: 1.20x, timm_models: 1.73x
+    - Single-core Single-thread, torchbench: 1.29x, huggingface: 1.15x, timm_models: 1.37x.
+• Pluggable Inductor Backend: Eikan designed and implemented a new mechanism for registering hardware backends within Inductor (RFC). This mechanism allows new hardware to register its backend-specific implementation at runtime, leveraging the fusion capabilities and optimizations of Inductor to simplify the process of supporting new devices. Compared to the Dynamo backend approach, this greatly reduces design and implementation complexity. The main focus for a new backend is on generating optimal code for specific devices. Eikan introduced this feature as a poster at the PyTorch Conference 2024.
+    - Inductor Backend Registration APIs: register_backend_for_device, get_scheduling_for_device, get_wrapper_codegen_for_device
+    - AOTInductor Registration APIs: RegisterAOTIModelRunner,  getAOTIModelRunnerRegistry
+• Eager Through torch.compile: This approach aims to automatically generate kernels for ATen operations using torch.compile, removing the need for backend-specific implementations for each operation. Eikan collaborated closely with Jason and Bin to finalize the design(RFC) and implement the static shape functionalities. For PyTorch 2.5, the registration API(_impl_with_aoti_compile) will be exposed to users for new hardware backend eager mode support. Eikan introduced the feature as a poster at the PyTorch conference 2024.
+• Intel GPU Backend: Eikan successfully extended Inductor to support Intel GPUs on top of Triton, enhancing and democratizing the PyTorch hardware ecosystem. With this support, PyTorch on Intel GPUs demonstrates promising performance and an improved out-of-the-box experience, significantly broadening PyTorch's applicability. Eikan has been actively involved in the Triton community, initiating support for Intel GPUs in Triton. His contributions laid a strong foundation for the Intel GPU backend within Inductor, and he enabled the Intel GPU backend by reusing much of the design and implementation of the existing Triton backend. Additionally, Eikan led efforts to generalize GPU accelerator support in Inductor by designing the DeviceInterface for GPU accelerators, which serves as a preliminary step towards a more generalized accelerator runtime in PyTorch. He delivered a presentation on the Intel GPU backend at the PyTorch Conference 2023.
+Intel GPU
+Eikan has played a pivotal role in Intel GPU integration, contributing to its design, development, and integration within the PyTorch ecosystem.
+As the lead architect, Eikan has been instrumental in defining the roadmap for Intel GPU integration and aligning it with PyTorch's overall vision. He has actively participated in discussions about integration strategies and has been deeply involved in every aspect of the Intel GPU components, such as eager mode, torch.compile, runtime, profiler, CI/CD, and more. Eikan has reviewed almost all Intel GPU-related PRs, ensuring that all contributions are aligned with PyTorch’s design philosophy, as outlined in the Intel GPU Enabling Status and Feature Plan. 
+Beyond Intel GPU-specific efforts, Eikan has been proactive in generalizing the Intel GPU runtime. He has closely collaborated with Alban@alband), Guanye(@guangyey) to generalize the PyTorch runtime for various accelerators. This effort not only facilitates PyTorch's deployment on a wide range of hardware but also simplifies the integration process for different hardware backends.
+Additionally, Eikan is working on generalizing PyTorch’s distributed framework to support a variety of distributed backends. The goal is to make PyTorch distributed device-neutral, thereby reducing the effort required to integrate new hardware. Regarding Intel GPU distributed support, Eikan leads the team in adopting a "generalize-first" approach before integrating the Intel GPU distributed backend.
+Eikan presented on Intel GPU integration at the PyTorch Conference 2024, where he shared insights on the progress and future plans for Intel GPU support within PyTorch.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E893" s="2" t="inlineStr"/>
@@ -17858,28 +18122,37 @@
       <c r="I919" t="inlineStr"/>
     </row>
     <row r="920">
-      <c r="A920" s="2" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
+      <c r="A920" s="2" t="n">
+        <v>150</v>
       </c>
       <c r="B920" s="2" t="inlineStr">
         <is>
-          <t>Zesheng</t>
+          <t>Masahiro</t>
         </is>
       </c>
       <c r="C920" s="2" t="inlineStr">
         <is>
-          <t>Zong</t>
+          <t>Hiramori</t>
         </is>
       </c>
       <c r="D920" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I plan to continue advocating for PyTorch in both industry and academia. I will host local meetups and online sessions in Japanese and English to lower language barriers for contributors. I also aim to share real-world deployment insights, especially around edge and AI chip inference, through blog posts and workshops. My goal is to grow and diversify the PyTorch ecosystem by making it more accessible and practically impactful.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I am an Apache TVM committer and a 2024 PyTorch Contributor Award nominee. I’ve contributed to PyTorch ecosystem interoperability by implementing a Relax frontend for ExportedProgram with dynamic shape support. I’ve also actively shared knowledge through community contributions, public speaking, and academic research.
+I was a speaker at the first Japan PyTorch Regional User Group event hosted by the LF AI &amp; Data Foundation:
+https://lfaidata.foundation/blog/2025/02/20/first-japan-regional-user-group-rug-was-a-success/
+I also presented a paper at IEEE GCCE 2024:
+"Performance Evaluation of Apache TVM’s MetaSchedule for Image Classification Models on Edge Device"
+https://ieeexplore.ieee.org/document/10760375/
+TVM Contributions: https://github.com/apache/tvm/commits?author=mshr-h
+I’m passionate about fostering contributions from underrepresented regions, especially Asia, and about advancing deployment workflows for edge inference and AI chip platforms.</t>
         </is>
       </c>
       <c r="E920" s="2" t="inlineStr"/>
@@ -18369,28 +18642,35 @@
       <c r="I946" t="inlineStr"/>
     </row>
     <row r="947">
-      <c r="A947" s="2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
+      <c r="A947" s="2" t="n">
+        <v>147</v>
       </c>
       <c r="B947" s="2" t="inlineStr">
         <is>
-          <t>Masahiro</t>
+          <t>TAMWO</t>
         </is>
       </c>
       <c r="C947" s="2" t="inlineStr">
         <is>
-          <t>Hiramori</t>
+          <t>VALERE</t>
         </is>
       </c>
       <c r="D947" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a passionate advocate for data science and machine learning, I am eager to contribute to the PyTorch community as an Ambassador by fostering engagement, driving innovation, and empowering others to leverage PyTorch’s capabilities. 
+My commitment to learning and sharing knowledge, coupled with my technical experience in data analysis and programming, positions me to make a meaningful impact in the following ways:
+Community Engagement: I plan to actively engage with the PyTorch community by participating in discussions on platforms like the PyTorch Discussion Forums, Slack, and discuss.pytorch.org. Drawing from my experience in collaborative projects, such as designing ETL workflows and analyzing datasets, I will contribute insights on practical applications of PyTorch in data science, particularly for beginners and intermediate users. 
+Helping the Initiative Thrive: To help the PyTorch initiative thrive, I will promote its open-source ecosystem by creating educational content tailored to aspiring data scientists. This includes writing blog posts or tutorials on topics like building neural networks with PyTorch or integrating it with tools like KNIME for data preprocessing. My prior work on data mining projects, such as analyzing patterns in large datasets, equips me to showcase PyTorch’s strengths in handling complex machine learning tasks. Additionally, I will highlight success stories from my local community, amplifying PyTorch’s impact and inspiring others to contribute to the ecosystem.
+Hosting Events: I plan to organize at least one event per quarter, as required by the PyTorch Ambassador Program, to foster local and virtual community growth. For example, I could host a virtual workshop on “Getting Started with PyTorch for Data Science,
+Mentoring: Mentoring is a cornerstone of my vision as a PyTorch Ambassador. I am committed to supporting new users by offering one-on-one guidance through platforms like MentorCruise or PyTorch’s community channels. My approach will focus on helping learners overcome common challenges, such as debugging PyTorch code or optimizing models
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Personal Website and Portfolio: I have developed a professional website, https://www.feuwofranck.tech/, which serves as a portfolio showcasing my technical projects and passion for technology. The site highlights my work in web development and data analysis, including experiments with Python-based projects</t>
         </is>
       </c>
       <c r="E947" s="2" t="inlineStr"/>
@@ -18880,10 +19160,8 @@
       <c r="I973" t="inlineStr"/>
     </row>
     <row r="974">
-      <c r="A974" s="2" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
+      <c r="A974" s="2" t="n">
+        <v>145</v>
       </c>
       <c r="B974" s="2" t="inlineStr">
         <is>
@@ -18897,11 +19175,20 @@
       </c>
       <c r="D974" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I will actively promote the project, engage the community, and share valuable feedback. With strong communication skills and a passion for the mission, I’ll help grow awareness, support new members, and represent the project with integrity and enthusiasm.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Twitter: https://x.com/Mathias_don001?t=-dWdvWodA1HUeinfraDsXw&amp;s=09
+Telegram: t.me/Mathias_XP
+Medium: https://medium.com/@ezekielmathias500
+YouTube: https://youtube.com/@ezekielmathias-dk3li?si=2Vr2bj1yYGA-QJMY
+LinkedIn: https://www.linkedin.com/in/ezekiel-mathias-010555310?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app
+Previous work: https://docs.google.com/document/d/1ekW2heJ4oP2Y8MlsZY9Yq1xCU03fJKomQLIzIYSPNxI/edit?usp=drivesdk</t>
         </is>
       </c>
       <c r="E974" s="2" t="inlineStr"/>
@@ -19391,28 +19678,36 @@
       <c r="I1000" t="inlineStr"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="2" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
+      <c r="A1001" s="2" t="n">
+        <v>141</v>
       </c>
       <c r="B1001" s="2" t="inlineStr">
         <is>
-          <t>Grace</t>
+          <t>Davy</t>
         </is>
       </c>
       <c r="C1001" s="2" t="inlineStr">
         <is>
-          <t>Gong</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D1001" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would contribute by creating engaging educational content like tutorials, articles, and videos to help others learn and apply PyTorch effectively. I’d also organize community events and workshops both online and locally to foster collaboration and support among learners and practitioners. Additionally, I’d advocate for PyTorch in underrepresented regions, making deep learning more accessible and inclusive.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://x.com/alexyung01?t=7KfweqpRUbNR96pKOFppKg&amp;s=09 
+https://docs.google.com/document/d/1fLHUVhPQ1mSgLdzsGC6ElLNM22DAFQO36ld28BdzbfA/edit?usp=drivesdk
+https://medium.com/@mralexyung 
+https://www.linkedin.com/in/mic-davy-88765322a 
+https://www.youtube.com/@davymichael1150 
+https://docs.google.com/forms/u/0/d/e/1FAIpQLScTBdPBE54sULgHfK5fz6rVZ3AKR0Sj9T6nvkNYGlNSkgSdmw/formResponse
+https://docs.google.com/document/d/1HnRm0pBNtSxuOcMUgBWrIfemUyU0bSErs7i8V3x4z9s/edit?usp=drivesdk</t>
         </is>
       </c>
       <c r="E1001" s="2" t="inlineStr"/>
@@ -19902,28 +20197,30 @@
       <c r="I1027" t="inlineStr"/>
     </row>
     <row r="1028">
-      <c r="A1028" s="2" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
+      <c r="A1028" s="2" t="n">
+        <v>137</v>
       </c>
       <c r="B1028" s="2" t="inlineStr">
         <is>
-          <t>Mukharbek</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C1028" s="2" t="inlineStr">
         <is>
-          <t>Organokov</t>
+          <t>Chan</t>
         </is>
       </c>
       <c r="D1028" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Organize event , looking for speaker
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://gdg.community.dev/gdg-cloud-hong-kong/</t>
         </is>
       </c>
       <c r="E1028" s="2" t="inlineStr"/>
@@ -20413,10 +20710,8 @@
       <c r="I1054" t="inlineStr"/>
     </row>
     <row r="1055">
-      <c r="A1055" s="2" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
+      <c r="A1055" s="2" t="n">
+        <v>134</v>
       </c>
       <c r="B1055" s="2" t="inlineStr">
         <is>
@@ -20430,11 +20725,15 @@
       </c>
       <c r="D1055" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+He will do the nice stuff select him
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1055" s="2" t="inlineStr"/>
@@ -20924,10 +21223,8 @@
       <c r="I1081" t="inlineStr"/>
     </row>
     <row r="1082">
-      <c r="A1082" s="2" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
+      <c r="A1082" s="2" t="n">
+        <v>130</v>
       </c>
       <c r="B1082" s="2" t="inlineStr">
         <is>
@@ -20941,11 +21238,21 @@
       </c>
       <c r="D1082" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would actively contribute by fostering knowledge-sharing within both academic and applied AI communities, particularly in the medical imaging and computational biology domains. 
+I plan to organize practical workshops and hands-on sessions focused on deep learning for healthcare, making PyTorch more accessible to early-career researchers and students.
+Through my role as a university tutor and researcher, I already mentor students and guide them in building real-world AI systems using PyTorch—ranging from cytology applications to predictive models for public data challenges. I intend to scale this mentoring by launching open-source tutorials, challenge-based learning projects (e.g., medical image classification, multimodal fusion), and by promoting PyTorch adoption in interdisciplinary contexts like cultural heritage and smart cities.
+I am also the author of GravityNet, a PyTorch-based architecture designed for robust small object detection in biomedical images. The project is openly available on GitHub and serves as a foundation for applied research and reproducible experimentation in computational pathology and related fields.
+Finally, I would collaborate with existing community events (e.g., CVPL, university-led AI schools) to showcase PyTorch-based research pipelines, and support newcomers through public Q&amp;A sessions, live demos, and informal meetups, both in-person and online.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+As an active contributor in both academic research and higher education, I’ve published peer-reviewed articles leveraging PyTorch for tasks such as nuclei detection, cytology classification, and breast cancer imaging. My work spans international collaborations in brain imaging and oncology, and I often use PyTorch to prototype, benchmark, and deploy deep learning pipelines.
+I also support educational outreach by tutoring in advanced training courses, where I help students develop PyTorch-based projects in areas like document AI and multimodal health diagnostics. Additionally, I’m developing open educational materials—such as Python packages, reproducible notebooks, and ML challenges (e.g., Formula 1 predictive modeling)—to engage students and early-stage researchers in applied AI.
+I am committed to lowering entry barriers and promoting a responsible and inclusive AI culture through open science and community collaboration.</t>
         </is>
       </c>
       <c r="E1082" s="2" t="inlineStr"/>
@@ -21435,28 +21742,30 @@
       <c r="I1108" t="inlineStr"/>
     </row>
     <row r="1109">
-      <c r="A1109" s="2" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
+      <c r="A1109" s="2" t="n">
+        <v>124</v>
       </c>
       <c r="B1109" s="2" t="inlineStr">
         <is>
-          <t>Kuyeso</t>
+          <t>Mustafa</t>
         </is>
       </c>
       <c r="C1109" s="2" t="inlineStr">
         <is>
-          <t>Rogers</t>
+          <t>AbdulRazek</t>
         </is>
       </c>
       <c r="D1109" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+nan
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1109" s="2" t="inlineStr"/>
@@ -21946,28 +22255,34 @@
       <c r="I1135" t="inlineStr"/>
     </row>
     <row r="1136">
-      <c r="A1136" s="2" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
+      <c r="A1136" s="2" t="n">
+        <v>117</v>
       </c>
       <c r="B1136" s="2" t="inlineStr">
         <is>
-          <t>Mustafa</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="C1136" s="2" t="inlineStr">
         <is>
-          <t>AbdulRazek</t>
+          <t>Elsayed</t>
         </is>
       </c>
       <c r="D1136" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a seasoned AI researcher, educator, and KaggleX Advisor, I am deeply committed to empowering the ML and deep learning community, particularly in underrepresented regions like the Middle East and North Africa. As a PyTorch Ambassador, I plan to actively engage with the PyTorch community by:
+Hosting regular workshops and study jams focused on practical PyTorch applications, such as computer vision, NLP, and model deployment—drawing from my experience teaching over 150 senior students and supervising 30+ graduation projects in AI-related fields.
+Mentoring junior developers and students, especially Arabic-speaking learners, through structured bootcamps and office hours. I’ve already led multiple educational initiatives, including university bootcamps and training programs under national scholarships.
+Sharing knowledge through LinkedIn, Kaggle posts, and technical blogs about cutting-edge topics like scene graph generation, cross-modal retrieval, and embedding optimization—all areas where I’ve published or presented research using PyTorch.
+Organizing community events such as PyTorch meetups and virtual hackathons, leveraging my strong academic and industry network. These events would promote open collaboration, especially for women and Arabic-speaking communities in AI.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1136" s="2" t="inlineStr"/>
@@ -22457,28 +22772,32 @@
       <c r="I1162" t="inlineStr"/>
     </row>
     <row r="1163">
-      <c r="A1163" s="2" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
+      <c r="A1163" s="2" t="n">
+        <v>116</v>
       </c>
       <c r="B1163" s="2" t="inlineStr">
         <is>
-          <t>Arun</t>
+          <t>Sandin</t>
         </is>
       </c>
       <c r="C1163" s="2" t="inlineStr">
         <is>
-          <t>Bhandari</t>
+          <t>Maheeshakya</t>
         </is>
       </c>
       <c r="D1163" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Community Ambassador, the nominee would contribute by fostering a vibrant, inclusive, and collaborative environment for PyTorch users at all levels. With a strong background in deep learning and active experience using PyTorch in both academic and real-world projects, the nominee is well-positioned to share knowledge, mentor newcomers, and create resources that demystify PyTorch for broader audiences.
+They would lead local meetups, workshops, and online sessions to educate and inspire fellow developers, researchers, and students. Additionally, the nominee is passionate about open-source contribution and would actively engage with the PyTorch ecosystem—whether by contributing to tutorials, writing blog posts, or submitting pull requests—to enhance the framework and its documentation.
+Their commitment to community growth, technical expertise, and strong communication skills make them a valuable advocate for PyTorch and an inspiring leader within the global AI/ML community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1163" s="2" t="inlineStr"/>
@@ -22968,28 +23287,49 @@
       <c r="I1189" t="inlineStr"/>
     </row>
     <row r="1190">
-      <c r="A1190" s="2" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
+      <c r="A1190" s="2" t="n">
+        <v>114</v>
       </c>
       <c r="B1190" s="2" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Ibrahim</t>
         </is>
       </c>
       <c r="C1190" s="2" t="inlineStr">
         <is>
-          <t>Elsayed</t>
+          <t>Fadhili</t>
         </is>
       </c>
       <c r="D1190" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+1. Community Engagement &amp; Event Hosting
+Host quarterly PyTorch meetups (virtual/in-person) in Nairobi, focused on real-world applications like finance, healthcare, and NLP.
+Organize beginner-friendly workshops introducing PyTorch for computer vision, time series forecasting, and generative AI.
+Partner with local universities, tech hubs, and coding bootcamps to run student-focused AI bootcamps using PyTorch.
+2. Content Creation &amp; Knowledge Sharing
+Create hands-on tutorials, blogs, and video walkthroughs on:
+Building and deploying LSTM/CNN models with PyTorch
+Transfer learning for low-resource languages or local datasets
+PyTorch Lightning and model optimization techniques
+Share open-source notebooks and GitHub projects that demonstrate PyTorch-powered applications.
+3. Mentorship &amp; Community Building
+Mentor early-career AI enthusiasts and students via project reviews, AMA sessions, and career guidance.
+Build and grow a dedicated PyTorch user group in East Africa, engaging regularly on Discuss, Slack, and social platforms.
+Promote success stories and community contributions from the region to be featured by the PyTorch Foundation.
+4. Training &amp; Advocacy
+Lead train-the-trainer sessions to empower local developers to teach PyTorch effectively.
+Advocate for responsible and inclusive AI, using PyTorch to address regional challenges.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://www.linkedin.com/posts/ibrahim-fadhili_opensource-ai-machinelearning-activity-7305595470880366593-hMrB?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAADMsPVcBER2B6-O6BKraXfLnQTfob2LExMM
+https://www.linkedin.com/posts/ibrahim-fadhili_generative-ai-genai-activity-7294975560928124928-54XU?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAADMsPVcBER2B6-O6BKraXfLnQTfob2LExMM
+https://www.linkedin.com/posts/ibrahim-fadhili_judge-tech-innovation-activity-7282002024890535939-vsv1?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAADMsPVcBER2B6-O6BKraXfLnQTfob2LExMM
+https://www.linkedin.com/posts/ibrahim-fadhili_ai-chatbots-mentalhealth-activity-7232750211532533761-KYV8?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAADMsPVcBER2B6-O6BKraXfLnQTfob2LExMM</t>
         </is>
       </c>
       <c r="E1190" s="2" t="inlineStr"/>
@@ -23479,28 +23819,33 @@
       <c r="I1216" t="inlineStr"/>
     </row>
     <row r="1217">
-      <c r="A1217" s="2" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
+      <c r="A1217" s="2" t="n">
+        <v>110</v>
       </c>
       <c r="B1217" s="2" t="inlineStr">
         <is>
-          <t>Muhammad</t>
+          <t>MUHAMMAD</t>
         </is>
       </c>
       <c r="C1217" s="2" t="inlineStr">
         <is>
-          <t>Hamid</t>
+          <t>AHMAD</t>
         </is>
       </c>
       <c r="D1217" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+At Stanford’s Code in Place, I’ve had the privilege to teach and mentor aspiring people from around the world guiding them not just through lines of code, but into a mindset of curiosity, resilience, and problem-solving. This experience has deepened my belief that knowledge becomes truly powerful when it’s shared.
+As a PyTorch Ambassador, I aim to extend this mission into the broader AI community. While I haven’t yet contributed directly to PyTorch, I bring a clear vision and a deep passion for empowering others. I plan to build engaging educational content— from beginner-friendly videos to interactive tutorials and hands-on workshops designed to lower the barriers to deep learning.
+I’m already connected with a vibrant network of students and early-career professionals, and I plan to organize community study groups, office hours, and online events to make PyTorch more accessible and welcoming to newcomers. I also want to mentor those just starting their AI journey, helping them navigate challenges with clarity and confidence.
+This is not just a title for me it’s a mission. I see the Ambassador role as a launchpad to create inclusive spaces, spark curiosity, and build a community where learning flows freely. With my teaching background and unwavering drive to contribute, I’m ready to help the PyTorch initiative not just grow but thrive.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1217" s="2" t="inlineStr"/>
@@ -23990,28 +24335,40 @@
       <c r="I1243" t="inlineStr"/>
     </row>
     <row r="1244">
-      <c r="A1244" s="2" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="A1244" s="2" t="n">
+        <v>105</v>
       </c>
       <c r="B1244" s="2" t="inlineStr">
         <is>
-          <t>MUHAMMAD</t>
+          <t>Harini</t>
         </is>
       </c>
       <c r="C1244" s="2" t="inlineStr">
         <is>
-          <t>AHMAD</t>
+          <t>Anand</t>
         </is>
       </c>
       <c r="D1244" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+My experience spans applied machine learning, cutting-edge research, community leadership, and open-source advocacy, all of which position me to contribute meaningfully to the PyTorch Ambassador Program across its three pillars: local leadership, continuous learning, and knowledge sharing.
+I’ve actively used PyTorch in my research and professional projects from modeling gene regulatory networks at IIT Hyderabad to building cognitive tools aimed at mitigating the onset of dementia, and developing AI applications in healthcare at Niramai Health Analytix. My paper on **Financial BERT for Sentiment Analysis** was presented at the 9th International Conference for Convergence in Technology, and I’ve authored research on **Reinforcement Learning**, and **Quantum AI in Healthcare** through the IBM Quantum program. I’ve been invited by Intuit to present my research and am currently in the process of filing a patent in **multimodal machine learning**, further deepening my technical expertise with PyTorch-based workflows.
+Outside of research, I lead a **weekly AI and Data newsletter** with over 1,000 subscribers where I simplify technical topics, including PyTorch innovations. I’ve hosted **research paper reading circles** on advanced topics, including many based on PyTorch papers which I aim to expand into public workshops for the broader community. With PyTorch's growing footprint in academic and applied research, I plan to use this as a core channel for **educating developers, students, and researchers** on how to critically evaluate and apply new models.
+As a **speaker at KubeCon**, **Harvard WE Tech Fellow**, and the **youngest High Impact APAC Ambassador for Stanford’s WiDS initiative**, I’ve had opportunities to build and grow diverse communities. I led the largest technical and FOSS community at my college, regularly **hosting workshops on machine learning, NLP, and data science**, **judging hackathons**, and **mentoring juniors**. My ability to organize events from intimate research circles to large public sessions will translate directly to the Ambassador requirement of **quarterly events**, whether in-person or virtual.
+I’ve also been part of elite global communities like **KaggleX**, **GHCI**, and **MIT’s and Oxford’s AI in Healthcare summer schools**, giving me exposure to a wide international network of learners and builders. These experiences have given me playbooks for running effective community programming something I’m excited to bring to the PyTorch ecosystem. Whether it's through organizing hands-on workshops, curating speaker sessions, or promoting underrepresented voices in AI, I’m committed to building inclusive and technically robust learning spaces.
+The PyTorch Ambassador Program is a natural next step in my journey to give back to the community that has been pivotal in my own development. I’m enthusiastic about promoting PyTorch as a research and production-grade framework, helping others learn through tutorials and events, and amplifying local voices on a global stage.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+- My LinkedIn, a platform where I use my platform to voice and express my thoughts in initiatives to a following of 4k+ members - https://www.linkedin.com/in/harini-anand-2002/
+- Some talks I have given
+1. Invited by MK Cummins college to give a talk in research, internships and scholarships - https://youtu.be/GjCUmF97LsM?si=723gJT3VLcWhVoE9
+2. Workshop I held as part of my college flagship hackathon - https://www.youtube.com/live/QfcJnBBuk7k?si=ngvFouK_aV_4Jm-E
+3. Invited for a podcast to talk about my community building story - https://youtu.be/v-kxWYz_VR8?si=6y7VtEXl9wvvWrVC
+- My newsletter - https://www.linkedin.com/build-relation/newsletter-follow?entityUrn=7271142545974272000</t>
         </is>
       </c>
       <c r="E1244" s="2" t="inlineStr"/>
@@ -24501,24 +24858,63 @@
       <c r="I1270" t="inlineStr"/>
     </row>
     <row r="1271">
-      <c r="A1271" s="2" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
+      <c r="A1271" s="2" t="n">
+        <v>103</v>
       </c>
       <c r="B1271" s="2" t="inlineStr">
         <is>
-          <t>Argo</t>
-        </is>
-      </c>
-      <c r="C1271" s="2" t="inlineStr"/>
+          <t>Varanasi</t>
+        </is>
+      </c>
+      <c r="C1271" s="2" t="inlineStr">
+        <is>
+          <t>Akhil</t>
+        </is>
+      </c>
       <c r="D1271" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+How I Would Contribute as a PyTorch Ambassador
+Community Engagement
+As an AI &amp; Robotics Researcher at INNOTECH Manipal, I work extensively with cutting-edge AI technologies where PyTorch is essential. My experience with Multimodal LLMs, Transformers, and Retrieval-Augmented Generation enables me to engage meaningfully with both beginners and advanced practitioners in the PyTorch ecosystem.
+My participation in the GirlScript Summer of Code as an Open Source Contributor has prepared me for collaborative technology communities. I would apply this experience to foster an inclusive and supportive PyTorch community where practitioners at all levels feel welcome to contribute and learn.
+Technical Expertise and Knowledge Sharing
+I would leverage my technical knowledge in PyTorch, TensorFlow, CUDA, and specialized techniques like LoRA and PEFT to develop comprehensive educational resources. Drawing from my projects like "MediGenie: Medical ChatBot AI" and "Voice to Visualization," I would create practical tutorials demonstrating real-world PyTorch applications.
+I plan to develop a structured series of workshops progressing from foundational concepts to advanced implementations, ensuring community members have clear pathways to deepen their PyTorch expertise regardless of their starting point.
+Event Organization
+I would organize regular PyTorch meetups and technical sessions both online and in-person, drawing on my experience presenting at competitions like the Softlaunch Innovation Challenge 2025. These events would combine technical instruction with hands-on implementation, ensuring participants gain practical skills they can immediately apply.
+Having attended conferences like ROSCon'24 and various NVIDIA events, I understand what makes technical gatherings productive and engaging. I would apply these insights to create PyTorch-focused events that deliver maximum value to participants.
+Mentorship Approach
+My experience as an Undergraduate Research Assistant at Manipal Institute of Technology has developed my mentoring skills. I would establish a structured mentorship program pairing experienced PyTorch practitioners with newcomers, focusing particularly on helping students and early-career professionals build portfolio projects.
+I would dedicate regular office hours for one-on-one consultations with community members facing specific challenges in their PyTorch implementations, leveraging my diverse project experience across robotics, NLP, and recommendation systems.
+Strategic Growth Initiatives
+I would establish university-based PyTorch user groups at Manipal Institute of Technology and neighboring institutions, creating a strong regional community of academic PyTorch users. These groups would serve as incubators for collaborative research projects and educational initiatives.
+Drawing from my experience with deployment technologies like Docker, FastAPI, and AWS SageMaker, I would develop resources focused specifically on implementing production-ready PyTorch solutions, addressing a critical knowledge gap many practitioners face when moving beyond experimentation.
+Building on my multilingual AI project experience, I would work to make PyTorch resources more accessible to non-English speaking developer communities across India, significantly expanding the framework's reach in the region.
+Conclusion
+My combination of technical expertise, community engagement experience, and leadership background makes me well-positioned to serve effectively as a PyTorch Ambassador. I am committed to not only sharing knowledge but actively growing the community through structured events, mentoring relationships, and strategic outreach initiatives that bring more diverse voices into the PyTorch ecosystem.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Additional Details About Myself
+Technical Contributions and Knowledge Sharing
+My technical expertise in AI development is evidenced by my proficiency with various frameworks and technologies, including PyTorch, TensorFlow, and specialized techniques for model optimization. My projects demonstrate practical implementation in domains ranging from healthcare to natural language processing.
+My work on the "Voice to Visualization" project shows particular promise for educational content development. This multilingual multimodal AI tool transforms voice commands into SQL Queries into data visualizations, making technology more accessible to non-technical users. This project demonstrates my commitment to democratizing access to technology, a value that aligns well with the educational mission of the PyTorch Ambassador program.
+Conference Participation and Educational Engagement
+I have participated in several high-profile technical conferences, including ROSCon'24 at IISC Bangalore and multiple NVIDIA AI events. These experiences have equipped me with insights into effective technical communication and community building. My attendance at LLM workshops led by industry leaders from Google and NVIDIA indicates my commitment to staying current with rapidly evolving AI technologies.
+Academic and Research Background
+As an Undergraduate Research Assistant at Manipal Institute of Technology, I am conducting research on Hybrid Machine Learning Models for improved AQI predictive accuracy. This ongoing research work demonstrates my ability to apply theoretical knowledge to practical challenges, a valuable perspective I could bring to educational content creation for the PyTorch community.
+At INNOTECH Manipal, my role as an AI &amp; Robotics Researcher has allowed me to focus on cutting-edge areas including Agentic AI, Multimodal Large Language Models, Transformers, Hybrid AI Architectures, and Retrieval-Augmented Generation. This academic research experience has strengthened my understanding of advanced AI concepts and their implementation using frameworks like PyTorch.
+Professional Experience and Technical Implementation
+My professional experience includes a role at ARTPARK, IISc Bangalore as a Robotics Software Development Engineer Intern, where I developed algorithms for localization, navigation, and terrain assessment for autonomous legged robot operations. I enhanced environmental mapping, obstacle avoidance, and pathfinding capabilities in complex terrains, applying theoretical concepts to real-world robotics challenges.
+At Brilyant IT Solutions, as a Software Development Engineer Intern, I worked with real-world datasets and implemented production-level machine learning systems, including recommendation engines leveraging collaborative and content-based filtering techniques. These experiences have equipped me with practical knowledge of deploying AI systems in production environments.
+Certifications and Continued Learning
+I have completed several professional certifications that demonstrate my commitment to continuous learning, including the IBM Machine Learning Professional Certificate and courses on Generative AI with Large Language Models from AWS and DeepLearning.AI. My NVIDIA certifications in model deployment, RAG agents, and CUDA programming further validate my technical expertise.
+Achievement Recognition
+My technical capabilities and presentation skills have been recognized through competitive achievements, including winning the Softlaunch Innovation Challenge 2025 and being named a Top 10 Finalist in the National Edge AI Innovation Challenge 2024. These accolades validate both my technical implementation abilities and my capacity to communicate complex technical concepts effectively.</t>
         </is>
       </c>
       <c r="E1271" s="2" t="inlineStr"/>
@@ -25008,28 +25404,36 @@
       <c r="I1297" t="inlineStr"/>
     </row>
     <row r="1298">
-      <c r="A1298" s="2" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
+      <c r="A1298" s="2" t="n">
+        <v>99</v>
       </c>
       <c r="B1298" s="2" t="inlineStr">
         <is>
-          <t>Akaash</t>
+          <t>Prajwal</t>
         </is>
       </c>
       <c r="C1298" s="2" t="inlineStr">
         <is>
-          <t>Tripathi</t>
+          <t>Shrestha</t>
         </is>
       </c>
       <c r="D1298" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador: I would do the following:
+- Organize local and online events focused on PyTorch tools and research.
+- Submit bug reports, feature suggestions, or documentation improvements to the PyTorch GitHub repo.
+- Mentor newcomers in open-source contributions related to PyTorch.
+- Build or maintain open-source projects/tools that enhance PyTorch usability (e.g., training utilities, loaders, visualization tools).
+- Actively participate in PyTorch forums, Reddit, Discord, or Stack Overflow to help developers troubleshoot and learn.
+- Invite PyTorch contributors or other ambassadors for co-hosted learning sessions.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1298" s="2" t="inlineStr"/>
@@ -25519,28 +25923,35 @@
       <c r="I1324" t="inlineStr"/>
     </row>
     <row r="1325">
-      <c r="A1325" s="2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="A1325" s="2" t="n">
+        <v>96</v>
       </c>
       <c r="B1325" s="2" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Jam</t>
         </is>
       </c>
       <c r="C1325" s="2" t="inlineStr">
         <is>
-          <t>Subrata</t>
+          <t>Villarosa</t>
         </is>
       </c>
       <c r="D1325" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+The University of Makati is one of the premier institutions in the National Capital Region. However, despite this distinction, our college—the College of Computing and Information Sciences (CCIS)—continues to lack meaningful exposure to Artificial Intelligence and Machine Learning. This is a serious concern for me, especially as someone deeply passionate about these fields and their potential impact.
+During my time as Vice President of one of our local student organizations, I consistently advocated for AI-related events, workshops, and initiatives. Unfortunately, my efforts were not aligned with the vision of the organization, and I eventually made the difficult decision to step down. Still, I remained committed to my goal. Leveraging the leadership skills I developed in that role, I began organizing and leading small student groups to participate in nationwide hackathons, stepping in where our student council and college organizations had failed to act. These grassroots efforts have allowed us to gain valuable experience and showcase what’s possible when students are simply given the opportunity.
+If selected as an ambassador, I plan to take this further by organizing face-to-face, hands-on AI events across the University—centered on building real-world applications and machine learning models using PyTorch. These events will be held in partnership with our student council and any organizations willing to help pioneer this movement.
+Importantly, my mission won’t be limited to CCIS. I believe AI should be accessible to all, and I’m excited to work with students from other colleges and disciplines—especially those who aren’t traditionally exposed to technology. Whether they’re from education, business, or the arts, I want to help them understand how AI can be relevant and transformative in their own fields. By spreading awareness and breaking down barriers, we can build a more inclusive, innovative, and forward-thinking university community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I have held multiple leadership roles, including serving as Computer Science Representative and Internal Vice President of the UMak Computer Society, where I actively pushed for more technically-focused events. Unfortunately, due to a lack of alignment in vision, I stepped down and redirected my energy into grassroots efforts. Despite limited institutional support, I mobilized small groups of students to participate in nationwide hackathons, helping them gain exposure and confidence in building AI-powered solutions.
+I also served as Tabulation Director for the Mr. and Ms. UMak university-wide pageant—an event where I utilized my technical skills to bring automation and accuracy into traditional processes. Currently, I am also a recognized CCIS Student Developer, advocating for ethical, innovative, and inclusive tech within our college.
+One of my proudest moments was leading a team to victory as Champion of the 6th CCIS Hackathon, where we built a practical, AI-powered application—further proving what’s possible with resourcefulness and collaboration.</t>
         </is>
       </c>
       <c r="E1325" s="2" t="inlineStr"/>
@@ -26030,28 +26441,53 @@
       <c r="I1351" t="inlineStr"/>
     </row>
     <row r="1352">
-      <c r="A1352" s="2" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
+      <c r="A1352" s="2" t="n">
+        <v>92</v>
       </c>
       <c r="B1352" s="2" t="inlineStr">
         <is>
-          <t>NOMTHANDAZO</t>
+          <t>Pratik</t>
         </is>
       </c>
       <c r="C1352" s="2" t="inlineStr">
         <is>
-          <t>TSHUMA</t>
+          <t>Korat</t>
         </is>
       </c>
       <c r="D1352" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a long-time core user of PyTorch with 6–7 years of hands-on experience across domains—including Computer Vision, Natural Language Processing, Reinforcement Learning, and Tabular Data—I bring both depth and versatility to the table. My proficiency in applying PyTorch to real-world problems, combined with my role as a Teaching Associate for Deep Learning and Machine Learning at San José State University, puts me in a strong position to make an immediate and sustained impact as a PyTorch Ambassador.
+My vision as an Ambassador is straightforward: grow the PyTorch community by enabling more developers, researchers, and students to adopt PyTorch not just as a framework, but as a mindset for rapid prototyping, reproducible research, and scalable deployment.
+Here’s how I will contribute:
+1. Community Engagement &amp; Knowledge Sharing
+I plan to actively contribute to the PyTorch ecosystem by:
+Publishing hands-on tutorials that bridge theory and practical implementation in CV, NLP, RL, and tabular modeling.
+Creating advanced walkthroughs for real-world problems, such as anomaly detection, fine-tuning LLMs, and multi-modal data processing.
+Sharing open-source repositories with annotated notebooks and reproducible results to encourage learning by doing.
+2. Event Hosting &amp; Technical Workshops
+Leveraging my university network and industry contacts, I will:
+Organize PyTorch hackathons and coding sprints focused on applied AI challenges.
+Host “PyTorch Deep-Dives” at universities and local tech meetups to demystify complex concepts like custom autograd functions, TorchScript, and model optimization techniques.
+Conduct live coding sessions and AMA-style webinars featuring both foundational topics and bleeding-edge research.
+3. Mentorship &amp; Teaching
+In my role as a Teaching Associate, I regularly mentor students who are transitioning from theoretical ML to real-world deep learning. As an Ambassador, I would scale this impact by:
+Launching a peer-mentorship program for students and early-career developers looking to build a strong PyTorch portfolio.
+Collaborating with faculty to integrate PyTorch-based labs into curriculum modules.
+Helping students prepare for research internships and ML competitions with curated PyTorch learning tracks.
+4. Forward-Looking Initiatives
+I plan to push the envelope by:
+Promoting PyTorch use in underrepresented areas such as tabular deep learning, causal inference, and simulation-based training.
+Collaborating on open-source benchmarks and reproducibility efforts that align with PyTorch’s mission of transparency and research-grade tooling.
+Advocating for responsible AI practices within the PyTorch ecosystem, including model interpretability and fairness audits.
+With a strong combination of applied expertise, academic involvement, and community enthusiasm, I’m ready to contribute meaningfully to the PyTorch Ambassador Program. My commitment is not just to use PyTorch, but to build a stronger, more inclusive, and forward-thinking community around it.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+In addition to my teaching and community involvement, I actively conduct research using PyTorch. Most recently, I submitted a research paper addressing bias and fairness challenges in federated learning, specifically applied to the healthcare sector. The work leverages PyTorch to implement distributed model training with fairness-aware optimization strategies, showcasing how the framework can be used to tackle critical real-world issues in sensitive domains like healthcare. This further reflects my commitment to applying PyTorch not just for performance, but also for ethical and responsible AI.</t>
         </is>
       </c>
       <c r="E1352" s="2" t="inlineStr"/>
@@ -26541,28 +26977,30 @@
       <c r="I1378" t="inlineStr"/>
     </row>
     <row r="1379">
-      <c r="A1379" s="2" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
+      <c r="A1379" s="2" t="n">
+        <v>89</v>
       </c>
       <c r="B1379" s="2" t="inlineStr">
         <is>
-          <t>Alperen</t>
+          <t>Sami</t>
         </is>
       </c>
       <c r="C1379" s="2" t="inlineStr">
         <is>
-          <t>ÜNLÜ</t>
+          <t>Adnan</t>
         </is>
       </c>
       <c r="D1379" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+My current DPhil research is on evaluating AI/ML models for multiple long-term conditions. I use the UK NHS Clinical Practice Research Datalink [approved CPRD study 23_002827](https://www.cprd.com/approved-studies/reinforcement-learning-approach-evaluate-and-rank-ai-models-use-clinical) population-level database with 60+ million patients. I am using PyTorch for training the models for which I am creating benchmark criteria for clinical AI evaluation. This work will also showcase the use of PyTorch for medical applications. As an Ambassador, I will be able to share my experiences with the wider PyTorch community as well as the health AI research community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+In 2024, I organized and delivered the [Oxford Human-centred AI Design Bootcamp](https://www.hcaibootcamp.site) where multiple stakeholders took part in training and designing AI/ML solutions. I intend to organize further such events in partnership with the PyTorch Foundation in my role as PyTorch Ambassador. The goal of the bootcamp events is to train participants on AI/ML and design innovation methods to empower them to co-design solutions for real-world challenges. This role will help me utilize the support from the Foundation to bring PyTorch to the community of practice in the healthcare field. Thank you for the opportunity.</t>
         </is>
       </c>
       <c r="E1379" s="2" t="inlineStr"/>
@@ -27052,28 +27490,38 @@
       <c r="I1405" t="inlineStr"/>
     </row>
     <row r="1406">
-      <c r="A1406" s="2" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+      <c r="A1406" s="2" t="n">
+        <v>86</v>
       </c>
       <c r="B1406" s="2" t="inlineStr">
         <is>
-          <t>Umair</t>
+          <t>Iflal</t>
         </is>
       </c>
       <c r="C1406" s="2" t="inlineStr">
         <is>
-          <t>Inayat</t>
+          <t>Ismalebbe</t>
         </is>
       </c>
       <c r="D1406" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Should I assume the position of a PyTorch Ambassador, my main objective would be to cultivate a lively and welcoming community. I see myself as a connector between the PyTorch community and the enthusiastic students in Sri Lanka. I would engage actively in online forums, discussions on GitHub, and social media groups, offering support and sharing knowledge. These platforms are where the enchantment occurs—where newcomers pose their initial queries and experienced users offer their knowledge. By participating in these discussions, I can contribute to fostering a more cooperative and encouraging atmosphere. 
+Organizing events is another domain where I think I can create a meaningful difference. Workshops and seminars at my university and in the Sri Lankan AI community hub would happen regularly. These activities would accommodate a diverse array of skill levels, from beginners starting in machine learning to individuals aiming to excel in advanced methods using PyTorch. However, my attention wouldn’t end there. I’m especially eager about the opportunity to connect with high school students. Their enthusiasm and inquisitiveness are unmatched, and I think that by exposing them to machine learning at an early stage, we can motivate the upcoming generation of researchers and innovators. Consider the opportunities if we could direct that youthful eagerness towards impactful projects and studies! 
+Guiding others is another area I’m profoundly enthusiastic about. As a teacher, I have observed how guidance can influence a student's educational and career path. I would keep mentoring underclassmen at my university, providing support on their projects and assisting them in dealing with the intricacies of machine learning. However, I wouldn’t restrict myself to the university environment. I would offer my mentorship to the wider Sri Lankan AI community, engaging with those who are keen to learn and develop. Frequent check-ins, code assessments, and guidance on optimal practices can create a significant impact. 
+Sharing what I know is honestly at the heart of how I work. I love creating blog posts and tutorials about PyTorch that people can actually understand, no matter where they are in their journey. I try to make sure there's something for everyone - whether you're just starting out and need the basics explained clearly, or you're already deep into it and looking for some advanced techniques.
+One of my favorite things is running webinars and live coding sessions. There's nothing quite like that real-time interaction! When people can ask questions right away and we can work through problems together, that's when the real learning happens.
+I'm also big on teamwork. Working alongside the PyTorch team has been incredible - giving feedback, bouncing ideas around, and seeing how the platform grows based on what users actually need. I've become a bit of an unofficial PyTorch evangelist, talking it up in both schools and companies because I've seen firsthand how powerful it can be.
+You'll probably find me presenting at conferences, joining panel discussions, or chatting with industry folks about why PyTorch matters. It's not just about the tool itself - it's about the amazing community that's grown around it.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+As a university student in my final year and an intern in machine learning at Synapse AI Labs, my experience with PyTorch has been truly transformative. It’s the device I depend on every day, and it has turned into a crucial aspect of my educational and career life. My enthusiasm for machine learning goes beyond my individual projects; I experience great delight in imparting this knowledge to others, particularly in my position as an instructor at my university. As I assist junior students with their machine learning modules, I've witnessed how even minimal support can ignite a lasting passion for the subject. 
+here is my latest Blog in MEDIUM: https://medium.com/towards-artificial-intelligence/qwq-32b-alibabas-tiny-titan-challenges-ai-giants-in-reasoning-0d617d1560f2
+here is my LINKEDIN: http://linkedin.com/in/iflalismalebbe/</t>
         </is>
       </c>
       <c r="E1406" s="2" t="inlineStr"/>
@@ -27563,10 +28011,8 @@
       <c r="I1432" t="inlineStr"/>
     </row>
     <row r="1433">
-      <c r="A1433" s="2" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="A1433" s="2" t="n">
+        <v>82</v>
       </c>
       <c r="B1433" s="2" t="inlineStr">
         <is>
@@ -27580,11 +28026,40 @@
       </c>
       <c r="D1433" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+How I Would Contribute as a PyTorch Ambassador
+My potential impact as a PyTorch Ambassador is multifaceted, rooted in my proven ability to build vibrant tech communities, my extensive experience in creating educational AI content, and my deep technical expertise in machine learning. I am not just equipped to fulfill the responsibilities but am eager to significantly help the PyTorch initiative thrive.
+1. Driving Local Community Engagement and Growth
+Leveraging My Proven Community-Building Expertise: I have a strong track record here. As a former Community Manager at TechUp Africa, I successfully fostered a community of over 1000 learners in data science. I also excelled as a Local Chapters Manager at Omdena, where I was instrumental in overseeing impact hubs and leading monthly challenges with over 100 collaborators. I will apply these skills to establish and nurture a dynamic PyTorch community in Nakuru, Kenya, and potentially extend my influence regionally.
+Hosting Engaging Events: I plan to organize a mix of events, including:
+Regular Meetups (In-person/Virtual): Drawing from my experience with weekly webinars at Omdena, I can host sessions covering PyTorch fundamentals, new features, and practical use cases.
+Workshops &amp; Hackathons: Focusing on hands-on learning, these events would encourage collaborative problem-solving using PyTorch, similar to the challenge-based approach I managed at Omdena.
+Talks and Seminars: I intend to deliver talks that not only cover PyTorch for modeling but also delve into more specialized areas. My plan to spread awareness about GPU programming within the PyTorch ecosystem and integrations/comparisons with frameworks like JAX will cater to both beginners and advanced users, broadening the community's technical depth.
+Active Participation in PyTorch Foundation Events: I am keen to engage with the wider community by participating in and promoting events like the PyTorch Conference, sharing insights and learnings back with my local chapter.
+2. Championing Knowledge-Sharing and Content Creation:
+High-Quality Technical Content: As a current Tutorial Writer at DataCamp, I am already proficient in "publishing technical blogs on various topics in AI." I plan to extend this by:
+Creating PyTorch-Specific Blogs and Tutorials: These would cover a range of topics, from introductory guides to advanced techniques, including my planned focus on GPU programming and JAX interoperation within PyTorch. This directly addresses the "create content" responsibility.
+Developing Video Content: Short tutorials, demo sessions, or recordings of my talks would provide accessible learning resources for a broader audience.
+Demystifying Complex Topics: My strength lies in breaking down complex AI concepts (e.g., governance, EDA techniques). I will apply this to make advanced PyTorch features and related technologies more understandable and approachable.
+Identifying and Showcasing Success Stories: Drawing from my experience with Omdena's grassroots projects, I have a keen eye for impactful applications. I will actively identify and help feature local PyTorch success stories, inspiring others and highlighting the framework's versatility.
+3. Mentoring and Fostering Talent:
+Guidance for Aspiring Developers: Reflecting my work at TechUp Africa where I mentored learners in data analysis and modeling, I am passionate about guiding newcomers. I would offer mentorship to individuals and groups within the local PyTorch community, helping them navigate their learning journey and contribute effectively.
+Facilitating Peer-to-Peer Learning: I will foster an environment where community members can learn from each other, sharing their projects, challenges, and solutions, much like the collaborative spirit I cultivated at Omdena.
+Overall Impact:
+My primary aim of spreading more awareness for PyTorch, particularly in less-discussed but crucial areas like GPU programming optimization and its relationship with complementary tools like JAX, fills a vital niche. My approach isn't just about growing the number of users; it's about deepening the quality of engagement and the technical capabilities within the community.
+By combining my passion for community engagement, my skills in creating accessible technical content, and my specific plans to highlight advanced PyTorch applications, I am poised to:
+- Establish a thriving, well-informed PyTorch hub in my region.
+- Contribute valuable, unique learning resources to the global PyTorch ecosystem.
+- Inspire and empower a new wave of PyTorch developers and researchers.
+- Act as a strong advocate for PyTorch, promoting its adoption and showcasing its power to solve real-world problems.
+My background as an ML Engineer, coupled with my community leadership roles, makes me confident that I can not only meet the program's expectations but also become a truly impactful PyTorch Ambassador.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1433" s="2" t="inlineStr"/>
@@ -28074,28 +28549,30 @@
       <c r="I1459" t="inlineStr"/>
     </row>
     <row r="1460">
-      <c r="A1460" s="2" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="A1460" s="2" t="n">
+        <v>80</v>
       </c>
       <c r="B1460" s="2" t="inlineStr">
         <is>
-          <t>Andrey</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="C1460" s="2" t="inlineStr">
         <is>
-          <t>Cheptsov</t>
+          <t>MEDRANO</t>
         </is>
       </c>
       <c r="D1460" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Currently creating a community of users providing trainings within my organization and looking to establish a community of programmers who actively use PyTorch and collaborate with the repository, encouraging engineers and young learners from local universities and high schools.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1460" s="2" t="inlineStr"/>
@@ -28585,28 +29062,30 @@
       <c r="I1486" t="inlineStr"/>
     </row>
     <row r="1487">
-      <c r="A1487" s="2" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="A1487" s="2" t="n">
+        <v>74</v>
       </c>
       <c r="B1487" s="2" t="inlineStr">
         <is>
-          <t>Alexandru</t>
+          <t>Jyoti</t>
         </is>
       </c>
       <c r="C1487" s="2" t="inlineStr">
         <is>
-          <t>Aslău</t>
+          <t>Sahoo</t>
         </is>
       </c>
       <c r="D1487" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I have a team in my college in and in the nearby colleges who are interested in learning Vision AI for creating real time projects so I would align their interest with pytorch and get them learnt so that they would transfer this knowledge further to all the colleges in the state that's how I will build this community, also I would organize events like Hackathons and Competition within my college and outside also which will be fully focused on Vision AI(Image recognition, Object Detection and Segmentation) which will use pytorch and Computer Vision as a major role.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Nothing extra, just wanted to built a Machine learning and AI community long back from 3 years and today I got this opportunity. I would like to thank Pytorch for providing such a good opportunity to users all over the world.</t>
         </is>
       </c>
       <c r="E1487" s="2" t="inlineStr"/>
@@ -29096,28 +29575,33 @@
       <c r="I1513" t="inlineStr"/>
     </row>
     <row r="1514">
-      <c r="A1514" s="2" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="A1514" s="2" t="n">
+        <v>72</v>
       </c>
       <c r="B1514" s="2" t="inlineStr">
         <is>
-          <t>Jyoti</t>
+          <t>Marimuthu</t>
         </is>
       </c>
       <c r="C1514" s="2" t="inlineStr">
         <is>
-          <t>Sahoo</t>
+          <t>Kalimuthu</t>
         </is>
       </c>
       <c r="D1514" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I plan to host in-person hands-on events, specifically tutorials, introducing (Bachelor's, Master's, PhD) students to PyTorch and its ecosystem of frameworks and libraries. Since I'm affiliated with the university and work regularly from the university office, the organizational aspects are straightforward. 
+I envision creating a local PyTorch enthusiasts group at Uni Stuttgart and organize regular events. Further, upon acceptance, a relevant webpage will be set up to disseminate the created learning materials (e.g., Marimo notebooks) and document the events. 
+Moreover, since my current research work is mainly in the AI4Science domain, the aim is also to introduce PyTorch programming to chemists and physicists who are unfamiliar with PyTorch thinking and tensor computing.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I have extensive tensor computing (NumPy, PyTorch, CuPy, JAX) experience and contributed several answers on StackOverflow (https://stackoverflow.com/users/2956066/kmario23).
+Moreover, I maintain an open-source benchmark codebase (https://github.com/pdebench/PDEBench) for scientific machine learning and have contributed to other relevant frameworks.</t>
         </is>
       </c>
       <c r="E1514" s="2" t="inlineStr"/>
@@ -29607,28 +30091,35 @@
       <c r="I1540" t="inlineStr"/>
     </row>
     <row r="1541">
-      <c r="A1541" s="2" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="A1541" s="2" t="n">
+        <v>66</v>
       </c>
       <c r="B1541" s="2" t="inlineStr">
         <is>
-          <t>Md</t>
+          <t>Lucky</t>
         </is>
       </c>
       <c r="C1541" s="2" t="inlineStr">
         <is>
-          <t>Rahi</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="D1541" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As someone actively involved in Nigeria’s vibrant tech ecosystem,I envision my role as a PyTorch Ambassador as a bridge, connecting the global PyTorch community with the untapped potential of emerging developers in Africa. I have spent the last few years building communities, mentoring students and professionals, and organizing events that make technology more approachable, especially for those just getting started.
+Drawing from my experiences as a GitHub Campus Expert and open-source Community Manager, I  have witnessed firsthand the transformative power of accessible education and mentorship. In my local environment and beyond, I have organized workshops, hackathons, and study groups that demystify complex technologies for students and early-career professionals. These events don't just teach, they inspire and empower community members to learn, improve, and acquire more technical skills in various techn stacks like AI/ML, Software development and Engineering etc.
+I plan to organize regular PyTorch meetups, offer mentorship to newcomers, and collaborate with other ambassadors to bring more visibility to the amazing work coming out of our region and get more mentors for my community in the field of AI/ML. Through blog posts, videos, and community-driven projects, I will make sure PyTorch feels accessible and relevant, no matter where someone is starting from, either beginner, intermediate, or professional in Machine learning, I will create contents tailored to their skill level.
+More than anything, I want to help build a supportive and inclusive pytorch community, one that empowers people, sparks ideas, and encourages community to contribute back to the larger AI/ML community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+While I am not yet a PyTorch expert or an active contributor to the framework, I see this opportunity as a powerful step forward, not just for me, but for my entire community. In many parts of Nigeria and across Africa, access to hands-on support and mentorship in artificial intelligence and machine learning is still very limited. I want to change that.
+Becoming a PyTorch Ambassador would give me the chance to learn more deeply, grow my skills, and bring that knowledge home in ways that make a real difference. I want to be the person who sparks that first “aha” moment for a student who is just hearing about machine learning for the first time. I want to show them that this technology is not just for Silicon Valley, it is for us, too.
+This program would give me the tools, network, and platform to advocate for PyTorch meaningfully, build a stronger AI community in my region and beyond,  creating pathways for others to explore and contribute to this field. I am passionate, willing to learn, and deeply committed to making sure no one is left behind as this technology shapes the future..</t>
         </is>
       </c>
       <c r="E1541" s="2" t="inlineStr"/>
@@ -30118,10 +30609,8 @@
       <c r="I1567" t="inlineStr"/>
     </row>
     <row r="1568">
-      <c r="A1568" s="2" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+      <c r="A1568" s="2" t="n">
+        <v>65</v>
       </c>
       <c r="B1568" s="2" t="inlineStr">
         <is>
@@ -30135,11 +30624,34 @@
       </c>
       <c r="D1568" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would continue to grow and engage the vibrant machine learning community I’ve built through the London PyTorch Meetup, which is the only dedicated PyTorch group in the city. Over the past three years, I’ve organized well-attended events (150+ attendees regularly) with speakers from the PyTorch core team and active participation from ML engineers, researchers, and startup founders. Our meetup has over 1,500 members and consistently receives excellent feedback (average rating: 4.5/5 on Meetup.com).
+I plan to expand this momentum by:
+- Scaling Up Meetup Frequency and Reach: There’s strong demand from our attendees for more frequent events—we consistently see high turnout, engagement, and positive feedback. Currently, I organize meetups roughly once every four months, primarily sourcing speakers from my personal network. With support from the PyTorch Ambassador Program, I aim to increase that cadence to one event every two months. The program’s networking opportunities would make it easier to connect with potential speakers across the global PyTorch community, while the ambassador status itself would help with securing venues and partnerships. This would allow me to deliver more consistent value to the community and keep pace with the rapid evolution of PyTorch.
+- Knowledge-Sharing at Scale: All events are recorded and shared via our YouTube channel, which allows knowledge to reach beyond London. I also contribute directly to PyTorch itself, such as this PR to the examples repo, and intend to keep contributing both code and educational content.
+https://www.youtube.com/@londonpytorchmeetup
+https://github.com/pytorch/examples/pull/658
+- Sharing Timely and Practical Knowledge: A key focus of our events is keeping the community up to date with the latest PyTorch releases, features, and ecosystem tools. We invite experts to share real-world best practices and patterns from both academia and production ML, helping attendees stay current and apply PyTorch more effectively.
+- Fostering Knowledge-Sharing Through Networking: Each event includes dedicated networking sessions where engineers, researchers, and hiring managers connect and share practical experience. These informal discussions often lead to real learning opportunities—and even job offers—as attendees gain insights from peers solving similar problems in production.
+With Ambassador support, I can grow this local community faster and make it easier for people in the UK to engage directly with the PyTorch ecosystem.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+My name is Fedor Shabashev, I live in London, UK and over the last 3 years I organised and hosted many Pytorch meetups in London. 
+- We are the only PyTorch meetup group in London (to the best of my knowledge).
+- We have 1,500+ members on Meetup.com.
+- Our events regularly attract 150+ attendees, including ML engineers, research engineers, and startup founders.
+- We’ve had speakers from the core PyTorch team, including Vincent Moens, Mario Lezcano Casado, and Nicolas Hug.
+- We consistently receive positive feedback from our attendees (meetup feedback is 4.5 stars on average on meetup.com)
+- You can learn more about us here:
+    https://www.meetup.com/london-pytorch-meetup/
+- We also upload our talks to our YouTube channel:
+    https://www.youtube.com/@londonpytorchmeetup
+I also contributed to the PyTorch repository, got a couple of PRs merged:  
+https://github.com/pytorch/examples/pull/658</t>
         </is>
       </c>
       <c r="E1568" s="2" t="inlineStr"/>
@@ -30629,28 +31141,32 @@
       <c r="I1594" t="inlineStr"/>
     </row>
     <row r="1595">
-      <c r="A1595" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
+      <c r="A1595" s="2" t="n">
+        <v>59</v>
       </c>
       <c r="B1595" s="2" t="inlineStr">
         <is>
-          <t>Debashish</t>
+          <t>Prakash</t>
         </is>
       </c>
       <c r="C1595" s="2" t="inlineStr">
         <is>
-          <t>Chakraborty</t>
+          <t>Baburaj</t>
         </is>
       </c>
       <c r="D1595" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I will actively learn about the latest updates in pytorch and organize monthly meetups to discuss features and how it can be used to improve our code.
+Also, I have a group of people who are well versed in pytorch and could help mentor others if we can organize a hackathon.
+I also plan on making bite sized content that I will publish on LinkedIn weekly.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1595" s="2" t="inlineStr"/>
@@ -31140,28 +31656,30 @@
       <c r="I1621" t="inlineStr"/>
     </row>
     <row r="1622">
-      <c r="A1622" s="2" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
+      <c r="A1622" s="2" t="n">
+        <v>57</v>
       </c>
       <c r="B1622" s="2" t="inlineStr">
         <is>
-          <t>Prakash</t>
+          <t>subburaj</t>
         </is>
       </c>
       <c r="C1622" s="2" t="inlineStr">
         <is>
-          <t>Baburaj</t>
+          <t>sankarappan</t>
         </is>
       </c>
       <c r="D1622" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+```As an Ambassador, I intend to actively support the PyTorch community through a few straightforward initiatives:
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1622" s="2" t="inlineStr"/>
@@ -31651,28 +32169,36 @@
       <c r="I1648" t="inlineStr"/>
     </row>
     <row r="1649">
-      <c r="A1649" s="2" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
+      <c r="A1649" s="2" t="n">
+        <v>51</v>
       </c>
       <c r="B1649" s="2" t="inlineStr">
         <is>
-          <t>Saikumarreddy</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C1649" s="2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Vega</t>
         </is>
       </c>
       <c r="D1649" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a computer science educator, machine learning practitioner, and active community contributor, I believe I can meaningfully advance the goals of the PyTorch Ambassador Program through education, mentorship, and community engagement in the Philippines and beyond.
+With over a decade of experience in both academia and software development, I am in a unique position to bridge the gap between theoretical understanding and practical application of PyTorch. I currently teach Machine Learning and related subjects at Ateneo de Naga University, where I integrate PyTorch into my course materials and student projects. As an ambassador, I plan to formalize this further by developing open educational resources, tutorials, and project templates centered on PyTorch for Filipino students and early-career developers.
+Having mentored students and software engineers through classroom instruction and industry work, I will use the ambassador platform to establish local and virtual mentorship channels for those exploring deep learning with PyTorch. I aim to prioritize inclusivity by reaching out to underrepresented groups in tech, particularly in rural or regional academic institutions in the Philippines.
+I have previously conducted training sessions for the Department of Science and Technology and served as a speaker and judge in programming and innovation events. Leveraging this experience, I plan to host PyTorch-focused events such as hands-on workshops, hackathons, and research talks. These events will not only promote PyTorch but also foster collaboration across universities and tech communities.
+My research background—including projects in medical imaging, activity recognition, and phylogenetics—highlights my capability to apply PyTorch in diverse domains. I intend to contribute back to the community by publishing example use cases and lightweight models that address real-world problems relevant to Southeast Asia, such as agriculture, health diagnostics, and education.
+By cultivating student interest and enabling open-source contributions, I aim to grow a regional PyTorch user group that thrives even beyond my direct involvement. My long-term vision includes building partnerships with universities and startups to embed PyTorch into innovation pipelines.
+In summary, as a PyTorch Ambassador, I will champion open, inclusive, and applied deep learning education in the Philippines, with a strong commitment to community-led growth and impact.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1649" s="2" t="inlineStr"/>
@@ -32162,28 +32688,35 @@
       <c r="I1675" t="inlineStr"/>
     </row>
     <row r="1676">
-      <c r="A1676" s="2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
+      <c r="A1676" s="2" t="n">
+        <v>46</v>
       </c>
       <c r="B1676" s="2" t="inlineStr">
         <is>
-          <t>Aditya</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="C1676" s="2" t="inlineStr">
         <is>
-          <t>Thakuri</t>
+          <t>Fernandes</t>
         </is>
       </c>
       <c r="D1676" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I will have a 2-pronged approach:
+- Continue speaking at AI/ML conferences - PyData London, PyCon UK, AI Engineer World Fair 2025
+- Continue making technical content and videos for LinkedIn Learning - https://www.linkedin.com/learning/instructors/jonathan-fernandes
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://www.linkedin.com/learning/instructors/jonathan-fernandes
+https://pydata.org/london2019/schedule/presentation/60/fundamentals-of-image-classification-using-pytorch/
+https://2017.pyconuk.org/sessions/workshops/an-introduction-to-convolutional-neural-networks/
+Thanks for this opportunity!</t>
         </is>
       </c>
       <c r="E1676" s="2" t="inlineStr"/>
@@ -32673,28 +33206,33 @@
       <c r="I1702" t="inlineStr"/>
     </row>
     <row r="1703">
-      <c r="A1703" s="2" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+      <c r="A1703" s="2" t="n">
+        <v>45</v>
       </c>
       <c r="B1703" s="2" t="inlineStr">
         <is>
-          <t>Mazen</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="C1703" s="2" t="inlineStr">
         <is>
-          <t>Alotaibi</t>
+          <t>KANGONI</t>
         </is>
       </c>
       <c r="D1703" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I'm currently a Zindi Country Ambassador in my country(DR Congo). Zindi contributes to the advancement of data science, and in our training courses, we also offer workshops on deep learning. So, with my PyTorch Ambassador status, I could easily introduce my community to learn and use PyTorch. My community is made up of computer science and mathematics students from across the country.
+I could therefore organize PyTorch events without linking them to Zindi's events, where we would also involve machine learning professionals in the country.
+In my case, I  currently have a good knowledge of PyTorch, but I sometimes use TensorFlow or Jax. Being an ambassador will allow me to stay focused on PyTorch and become an expert.
+I mainly use pytorch for PINNs, field i'm currently learning, so i don't start to commit my projects in GitHub.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://www.linkedin.com/in/sam-matia-4b051125b/</t>
         </is>
       </c>
       <c r="E1703" s="2" t="inlineStr"/>
@@ -33184,28 +33722,30 @@
       <c r="I1729" t="inlineStr"/>
     </row>
     <row r="1730">
-      <c r="A1730" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
+      <c r="A1730" s="2" t="n">
+        <v>39</v>
       </c>
       <c r="B1730" s="2" t="inlineStr">
         <is>
-          <t>Rawanna</t>
+          <t>Md</t>
         </is>
       </c>
       <c r="C1730" s="2" t="inlineStr">
         <is>
-          <t>Chathuranga</t>
+          <t>Shad</t>
         </is>
       </c>
       <c r="D1730" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I’m excited about the opportunity to support the PyTorch community by making it more approachable and active in my region. I plan to host regular events, like hands-on workshops or online meetups, to help students, researchers, and developers learn how to use PyTorch in real-world projects. I also want to mentor beginners and those transitioning into deep learning by guiding them through practical problems and sharing helpful resources. I’ll create and share content like simple tutorials, blog posts, and example code to make learning PyTorch easier. On top of that, I’ll stay active on community platforms like the PyTorch forums and Slack to help answer questions and connect with others. My goal is to grow a friendly and supportive local PyTorch community that contributes back to the global one.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1730" s="2" t="inlineStr"/>
@@ -33695,28 +34235,34 @@
       <c r="I1756" t="inlineStr"/>
     </row>
     <row r="1757">
-      <c r="A1757" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="A1757" s="2" t="n">
+        <v>35</v>
       </c>
       <c r="B1757" s="2" t="inlineStr">
         <is>
-          <t>Krishna</t>
+          <t>Ojas</t>
         </is>
       </c>
       <c r="C1757" s="2" t="inlineStr">
         <is>
-          <t>Kalyan</t>
+          <t>Patil</t>
         </is>
       </c>
       <c r="D1757" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+- Workshops: Helping students learn how to use the fundamentals of PyTorch through model building and deployment with hands-on PyTorch sessions.
+- Office Hours &amp; Mentorship: Conducting weekly sessions, where beginners are guided through mini-projects by experienced users, also known as “Drop-In Hours”.
+- Community Hub: Creating a Discord channel and a monthly newsletter to highlight submitted tutorials, spotlight projects, and schedule events.
+- Collaborations &amp; Challenges: Organizing study groups and themed hackathons alongside collaboration with other clubs/groups.
+Having led 5-day Deep Learning bootcamp, mentored over a hundred students, and gaining real-world experience using PyTorch, I will actively work towards establishing a practical and sustained PyTorch environment on campus.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1757" s="2" t="inlineStr"/>
@@ -34206,28 +34752,30 @@
       <c r="I1783" t="inlineStr"/>
     </row>
     <row r="1784">
-      <c r="A1784" s="2" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="A1784" s="2" t="n">
+        <v>32</v>
       </c>
       <c r="B1784" s="2" t="inlineStr">
         <is>
-          <t>Sagi</t>
+          <t>Badar</t>
         </is>
       </c>
       <c r="C1784" s="2" t="inlineStr">
         <is>
-          <t>Bharadwaj</t>
+          <t>Butt</t>
         </is>
       </c>
       <c r="D1784" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am a great programmer and researcher and will do my best to teach PyTorch in Pakistan.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1784" s="2" t="inlineStr"/>
@@ -34716,519 +35264,8 @@
       </c>
       <c r="I1810" t="inlineStr"/>
     </row>
-    <row r="1811">
-      <c r="A1811" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B1811" s="2" t="inlineStr">
-        <is>
-          <t>ANAGHA</t>
-        </is>
-      </c>
-      <c r="C1811" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D1811" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
-        </is>
-      </c>
-      <c r="E1811" s="2" t="inlineStr"/>
-      <c r="F1811" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1811" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1811" t="inlineStr">
-        <is>
-          <t>Demonstrated knowledge and practical experience with PyTorch, including model building, traininga and deployment?</t>
-        </is>
-      </c>
-      <c r="I1811" t="inlineStr"/>
-    </row>
-    <row r="1812">
-      <c r="F1812" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1812" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1812" t="inlineStr">
-        <is>
-          <t>Familiarity with foundation-hosted projects, vLLM, DeepSpeed?</t>
-        </is>
-      </c>
-      <c r="I1812" t="inlineStr"/>
-    </row>
-    <row r="1813">
-      <c r="F1813" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1813" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1813" t="inlineStr">
-        <is>
-          <t>Made commits, PRs, issues filed, and code reviews across PyTorch and its ecosystem repositories?</t>
-        </is>
-      </c>
-      <c r="I1813" t="inlineStr"/>
-    </row>
-    <row r="1814">
-      <c r="F1814" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1814" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1814" t="inlineStr">
-        <is>
-          <t>Evidence of active participation in community discussions, RFCs, and GitHub projects?</t>
-        </is>
-      </c>
-      <c r="I1814" t="inlineStr"/>
-    </row>
-    <row r="1815">
-      <c r="F1815" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1815" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1815" t="inlineStr">
-        <is>
-          <t>Maintenance or leadership of related open source projects or libraries?</t>
-        </is>
-      </c>
-      <c r="I1815" t="inlineStr"/>
-    </row>
-    <row r="1816">
-      <c r="F1816" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1816" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>Authored technical blog posts, whitepapers, tutorials, or case studies on PyTorch or its ecosystem?</t>
-        </is>
-      </c>
-      <c r="I1816" t="inlineStr"/>
-    </row>
-    <row r="1817">
-      <c r="F1817" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1817" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>Published academic research papers or publications in relevant scientific journals or conferences?</t>
-        </is>
-      </c>
-      <c r="I1817" t="inlineStr"/>
-    </row>
-    <row r="1818">
-      <c r="F1818" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1818" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>Experience organizing or leading community events such as meetups, conferences, study groups, or hackathons?</t>
-        </is>
-      </c>
-      <c r="I1818" t="inlineStr"/>
-    </row>
-    <row r="1819">
-      <c r="F1819" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1819" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>Participation in significant developer or ML community events (e.g., NeurIPS, PyTorch Conference, ICML, CVPR,...)</t>
-        </is>
-      </c>
-      <c r="I1819" t="inlineStr"/>
-    </row>
-    <row r="1820">
-      <c r="F1820" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1820" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1820" t="inlineStr">
-        <is>
-          <t>Record of delivering talks, webinars, or workshops on PyTorch-related topics?</t>
-        </is>
-      </c>
-      <c r="I1820" t="inlineStr"/>
-    </row>
-    <row r="1821">
-      <c r="F1821" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1821" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>Ability to communicate complex concepts clearly to both technical and non-technical audiences?</t>
-        </is>
-      </c>
-      <c r="I1821" t="inlineStr"/>
-    </row>
-    <row r="1822">
-      <c r="F1822" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1822" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>Sample video recordings or links to previous talks?</t>
-        </is>
-      </c>
-      <c r="I1822" t="inlineStr"/>
-    </row>
-    <row r="1823">
-      <c r="F1823" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1823" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>Experience mentoring students, junior developers, or researchers?</t>
-        </is>
-      </c>
-      <c r="I1823" t="inlineStr"/>
-    </row>
-    <row r="1824">
-      <c r="F1824" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1824" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>Development or teaching of curricula or courses related to machine learning, deep learning, or distributed systems?</t>
-        </is>
-      </c>
-      <c r="I1824" t="inlineStr"/>
-    </row>
-    <row r="1825">
-      <c r="F1825" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1825" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>Active presence on platforms like Twitter, LinkedIn, YouTube, Medium, or personal blogs with a focus on machine learning, AI, or software development?</t>
-        </is>
-      </c>
-      <c r="I1825" t="inlineStr"/>
-    </row>
-    <row r="1826">
-      <c r="F1826" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1826" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>Consistency and quality of content promoting PyTorch and associated tools?</t>
-        </is>
-      </c>
-      <c r="I1826" t="inlineStr"/>
-    </row>
-    <row r="1827">
-      <c r="F1827" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1827" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>High number of followers, subscribers, or consistent engagement levels with online content (&gt;10,000 followers/&gt;100,000 subs)?</t>
-        </is>
-      </c>
-      <c r="I1827" t="inlineStr"/>
-    </row>
-    <row r="1828">
-      <c r="F1828" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1828" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>Demonstrated ability to spark discussion, share knowledge, and grow community awareness?</t>
-        </is>
-      </c>
-      <c r="I1828" t="inlineStr"/>
-    </row>
-    <row r="1829">
-      <c r="F1829" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1829" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>Commitment to open source principles, community-first development, and inclusive collaboration?</t>
-        </is>
-      </c>
-      <c r="I1829" t="inlineStr"/>
-    </row>
-    <row r="1830">
-      <c r="F1830" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1830" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>Advocacy for responsible AI development and ethical machine learning practices?</t>
-        </is>
-      </c>
-      <c r="I1830" t="inlineStr"/>
-    </row>
-    <row r="1831">
-      <c r="F1831" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1831" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>Clear articulation of why they want to be an Ambassador and what they hope to accomplish?</t>
-        </is>
-      </c>
-      <c r="I1831" t="inlineStr"/>
-    </row>
-    <row r="1832">
-      <c r="F1832" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1832" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>Proposed goals or initiatives that align with the mission of the PyTorch Foundation?</t>
-        </is>
-      </c>
-      <c r="I1832" t="inlineStr"/>
-    </row>
-    <row r="1833">
-      <c r="F1833" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1833" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>Contributions or bridges to other relevant ecosystems (e.g., HuggingFace?)</t>
-        </is>
-      </c>
-      <c r="I1833" t="inlineStr"/>
-    </row>
-    <row r="1834">
-      <c r="F1834" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1834" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>Integration work across tools or libraries within the AI/ML infrastructure landscape?</t>
-        </is>
-      </c>
-      <c r="I1834" t="inlineStr"/>
-    </row>
-    <row r="1835">
-      <c r="F1835" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1835" t="inlineStr">
-        <is>
-          <t>Geographic and Demographic Diversity</t>
-        </is>
-      </c>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>Representation from underrepresented regions or groups to foster inclusivity and global outreach?</t>
-        </is>
-      </c>
-      <c r="I1835" t="inlineStr"/>
-    </row>
-    <row r="1836">
-      <c r="F1836" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1836" t="inlineStr">
-        <is>
-          <t>Innovation and Pioneering Work</t>
-        </is>
-      </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>Early adoption or novel application of PyTorch or its ecosystem tools in industry, research, or startups?</t>
-        </is>
-      </c>
-      <c r="I1836" t="inlineStr"/>
-    </row>
-    <row r="1837">
-      <c r="F1837" t="inlineStr">
-        <is>
-          <t>Credibility</t>
-        </is>
-      </c>
-      <c r="G1837" t="inlineStr">
-        <is>
-          <t>Community References</t>
-        </is>
-      </c>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>References from other known community members?</t>
-        </is>
-      </c>
-      <c r="I1837" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="340">
+  <mergeCells count="335">
     <mergeCell ref="B1703:B1729"/>
     <mergeCell ref="A974:A1000"/>
     <mergeCell ref="E1109:E1135"/>
@@ -35289,7 +35326,6 @@
     <mergeCell ref="D488:D514"/>
     <mergeCell ref="A785:A811"/>
     <mergeCell ref="C785:C811"/>
-    <mergeCell ref="C1811:C1837"/>
     <mergeCell ref="D1460:D1486"/>
     <mergeCell ref="B1622:B1648"/>
     <mergeCell ref="D1622:D1648"/>
@@ -35370,7 +35406,6 @@
     <mergeCell ref="B1406:B1432"/>
     <mergeCell ref="B1325:B1351"/>
     <mergeCell ref="D1136:D1162"/>
-    <mergeCell ref="E1811:E1837"/>
     <mergeCell ref="D1568:D1594"/>
     <mergeCell ref="E1460:E1486"/>
     <mergeCell ref="B1541:B1567"/>
@@ -35526,8 +35561,6 @@
     <mergeCell ref="D245:D271"/>
     <mergeCell ref="A515:A541"/>
     <mergeCell ref="D1271:D1297"/>
-    <mergeCell ref="B1811:B1837"/>
-    <mergeCell ref="D1811:D1837"/>
     <mergeCell ref="B1379:B1405"/>
     <mergeCell ref="D1379:D1405"/>
     <mergeCell ref="A1163:A1189"/>
@@ -35565,13 +35598,12 @@
     <mergeCell ref="C218:C244"/>
     <mergeCell ref="A758:A784"/>
     <mergeCell ref="B1136:B1162"/>
-    <mergeCell ref="A1811:A1837"/>
     <mergeCell ref="E1001:E1027"/>
     <mergeCell ref="C1541:C1567"/>
     <mergeCell ref="E1541:E1567"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I126 I127 I128 I129 I130 I131 I132 I133 I134 I135 I136 I137 I138 I139 I140 I141 I142 I143 I144 I145 I146 I147 I148 I149 I150 I151 I152 I153 I154 I155 I156 I157 I158 I159 I160 I161 I162 I163 I164 I165 I166 I167 I168 I169 I170 I171 I172 I173 I174 I175 I176 I177 I178 I179 I180 I181 I182 I183 I184 I185 I186 I187 I188 I189 I190 I191 I192 I193 I194 I195 I196 I197 I198 I199 I200 I201 I202 I203 I204 I205 I206 I207 I208 I209 I210 I211 I212 I213 I214 I215 I216 I217 I218 I219 I220 I221 I222 I223 I224 I225 I226 I227 I228 I229 I230 I231 I232 I233 I234 I235 I236 I237 I238 I239 I240 I241 I242 I243 I244 I245 I246 I247 I248 I249 I250 I251 I252 I253 I254 I255 I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I381 I382 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I472 I473 I474 I475 I476 I477 I478 I479 I480 I481 I482 I483 I484 I485 I486 I487 I488 I489 I490 I491 I492 I493 I494 I495 I496 I497 I498 I499 I500 I501 I502 I503 I504 I505 I506 I507 I508 I509 I510 I511 I512 I513 I514 I515 I516 I517 I518 I519 I520 I521 I522 I523 I524 I525 I526 I527 I528 I529 I530 I531 I532 I533 I534 I535 I536 I537 I538 I539 I540 I541 I542 I543 I544 I545 I546 I547 I548 I549 I550 I551 I552 I553 I554 I555 I556 I557 I558 I559 I560 I561 I562 I563 I564 I565 I566 I567 I568 I569 I570 I571 I572 I573 I574 I575 I576 I577 I578 I579 I580 I581 I582 I583 I584 I585 I586 I587 I588 I589 I590 I591 I592 I593 I594 I595 I596 I597 I598 I599 I600 I601 I602 I603 I604 I605 I606 I607 I608 I609 I610 I611 I612 I613 I614 I615 I616 I617 I618 I619 I620 I621 I622 I623 I624 I625 I626 I627 I628 I629 I630 I631 I632 I633 I634 I635 I636 I637 I638 I639 I640 I641 I642 I643 I644 I645 I646 I647 I648 I649 I650 I651 I652 I653 I654 I655 I656 I657 I658 I659 I660 I661 I662 I663 I664 I665 I666 I667 I668 I669 I670 I671 I672 I673 I674 I675 I676 I677 I678 I679 I680 I681 I682 I683 I684 I685 I686 I687 I688 I689 I690 I691 I692 I693 I694 I695 I696 I697 I698 I699 I700 I701 I702 I703 I704 I705 I706 I707 I708 I709 I710 I711 I712 I713 I714 I715 I716 I717 I718 I719 I720 I721 I722 I723 I724 I725 I726 I727 I728 I729 I730 I731 I732 I733 I734 I735 I736 I737 I738 I739 I740 I741 I742 I743 I744 I745 I746 I747 I748 I749 I750 I751 I752 I753 I754 I755 I756 I757 I758 I759 I760 I761 I762 I763 I764 I765 I766 I767 I768 I769 I770 I771 I772 I773 I774 I775 I776 I777 I778 I779 I780 I781 I782 I783 I784 I785 I786 I787 I788 I789 I790 I791 I792 I793 I794 I795 I796 I797 I798 I799 I800 I801 I802 I803 I804 I805 I806 I807 I808 I809 I810 I811 I812 I813 I814 I815 I816 I817 I818 I819 I820 I821 I822 I823 I824 I825 I826 I827 I828 I829 I830 I831 I832 I833 I834 I835 I836 I837 I838 I839 I840 I841 I842 I843 I844 I845 I846 I847 I848 I849 I850 I851 I852 I853 I854 I855 I856 I857 I858 I859 I860 I861 I862 I863 I864 I865 I866 I867 I868 I869 I870 I871 I872 I873 I874 I875 I876 I877 I878 I879 I880 I881 I882 I883 I884 I885 I886 I887 I888 I889 I890 I891 I892 I893 I894 I895 I896 I897 I898 I899 I900 I901 I902 I903 I904 I905 I906 I907 I908 I909 I910 I911 I912 I913 I914 I915 I916 I917 I918 I919 I920 I921 I922 I923 I924 I925 I926 I927 I928 I929 I930 I931 I932 I933 I934 I935 I936 I937 I938 I939 I940 I941 I942 I943 I944 I945 I946 I947 I948 I949 I950 I951 I952 I953 I954 I955 I956 I957 I958 I959 I960 I961 I962 I963 I964 I965 I966 I967 I968 I969 I970 I971 I972 I973 I974 I975 I976 I977 I978 I979 I980 I981 I982 I983 I984 I985 I986 I987 I988 I989 I990 I991 I992 I993 I994 I995 I996 I997 I998 I999 I1000 I1001 I1002 I1003 I1004 I1005 I1006 I1007 I1008 I1009 I1010 I1011 I1012 I1013 I1014 I1015 I1016 I1017 I1018 I1019 I1020 I1021 I1022 I1023 I1024 I1025 I1026 I1027 I1028 I1029 I1030 I1031 I1032 I1033 I1034 I1035 I1036 I1037 I1038 I1039 I1040 I1041 I1042 I1043 I1044 I1045 I1046 I1047 I1048 I1049 I1050 I1051 I1052 I1053 I1054 I1055 I1056 I1057 I1058 I1059 I1060 I1061 I1062 I1063 I1064 I1065 I1066 I1067 I1068 I1069 I1070 I1071 I1072 I1073 I1074 I1075 I1076 I1077 I1078 I1079 I1080 I1081 I1082 I1083 I1084 I1085 I1086 I1087 I1088 I1089 I1090 I1091 I1092 I1093 I1094 I1095 I1096 I1097 I1098 I1099 I1100 I1101 I1102 I1103 I1104 I1105 I1106 I1107 I1108 I1109 I1110 I1111 I1112 I1113 I1114 I1115 I1116 I1117 I1118 I1119 I1120 I1121 I1122 I1123 I1124 I1125 I1126 I1127 I1128 I1129 I1130 I1131 I1132 I1133 I1134 I1135 I1136 I1137 I1138 I1139 I1140 I1141 I1142 I1143 I1144 I1145 I1146 I1147 I1148 I1149 I1150 I1151 I1152 I1153 I1154 I1155 I1156 I1157 I1158 I1159 I1160 I1161 I1162 I1163 I1164 I1165 I1166 I1167 I1168 I1169 I1170 I1171 I1172 I1173 I1174 I1175 I1176 I1177 I1178 I1179 I1180 I1181 I1182 I1183 I1184 I1185 I1186 I1187 I1188 I1189 I1190 I1191 I1192 I1193 I1194 I1195 I1196 I1197 I1198 I1199 I1200 I1201 I1202 I1203 I1204 I1205 I1206 I1207 I1208 I1209 I1210 I1211 I1212 I1213 I1214 I1215 I1216 I1217 I1218 I1219 I1220 I1221 I1222 I1223 I1224 I1225 I1226 I1227 I1228 I1229 I1230 I1231 I1232 I1233 I1234 I1235 I1236 I1237 I1238 I1239 I1240 I1241 I1242 I1243 I1244 I1245 I1246 I1247 I1248 I1249 I1250 I1251 I1252 I1253 I1254 I1255 I1256 I1257 I1258 I1259 I1260 I1261 I1262 I1263 I1264 I1265 I1266 I1267 I1268 I1269 I1270 I1271 I1272 I1273 I1274 I1275 I1276 I1277 I1278 I1279 I1280 I1281 I1282 I1283 I1284 I1285 I1286 I1287 I1288 I1289 I1290 I1291 I1292 I1293 I1294 I1295 I1296 I1297 I1298 I1299 I1300 I1301 I1302 I1303 I1304 I1305 I1306 I1307 I1308 I1309 I1310 I1311 I1312 I1313 I1314 I1315 I1316 I1317 I1318 I1319 I1320 I1321 I1322 I1323 I1324 I1325 I1326 I1327 I1328 I1329 I1330 I1331 I1332 I1333 I1334 I1335 I1336 I1337 I1338 I1339 I1340 I1341 I1342 I1343 I1344 I1345 I1346 I1347 I1348 I1349 I1350 I1351 I1352 I1353 I1354 I1355 I1356 I1357 I1358 I1359 I1360 I1361 I1362 I1363 I1364 I1365 I1366 I1367 I1368 I1369 I1370 I1371 I1372 I1373 I1374 I1375 I1376 I1377 I1378 I1379 I1380 I1381 I1382 I1383 I1384 I1385 I1386 I1387 I1388 I1389 I1390 I1391 I1392 I1393 I1394 I1395 I1396 I1397 I1398 I1399 I1400 I1401 I1402 I1403 I1404 I1405 I1406 I1407 I1408 I1409 I1410 I1411 I1412 I1413 I1414 I1415 I1416 I1417 I1418 I1419 I1420 I1421 I1422 I1423 I1424 I1425 I1426 I1427 I1428 I1429 I1430 I1431 I1432 I1433 I1434 I1435 I1436 I1437 I1438 I1439 I1440 I1441 I1442 I1443 I1444 I1445 I1446 I1447 I1448 I1449 I1450 I1451 I1452 I1453 I1454 I1455 I1456 I1457 I1458 I1459 I1460 I1461 I1462 I1463 I1464 I1465 I1466 I1467 I1468 I1469 I1470 I1471 I1472 I1473 I1474 I1475 I1476 I1477 I1478 I1479 I1480 I1481 I1482 I1483 I1484 I1485 I1486 I1487 I1488 I1489 I1490 I1491 I1492 I1493 I1494 I1495 I1496 I1497 I1498 I1499 I1500 I1501 I1502 I1503 I1504 I1505 I1506 I1507 I1508 I1509 I1510 I1511 I1512 I1513 I1514 I1515 I1516 I1517 I1518 I1519 I1520 I1521 I1522 I1523 I1524 I1525 I1526 I1527 I1528 I1529 I1530 I1531 I1532 I1533 I1534 I1535 I1536 I1537 I1538 I1539 I1540 I1541 I1542 I1543 I1544 I1545 I1546 I1547 I1548 I1549 I1550 I1551 I1552 I1553 I1554 I1555 I1556 I1557 I1558 I1559 I1560 I1561 I1562 I1563 I1564 I1565 I1566 I1567 I1568 I1569 I1570 I1571 I1572 I1573 I1574 I1575 I1576 I1577 I1578 I1579 I1580 I1581 I1582 I1583 I1584 I1585 I1586 I1587 I1588 I1589 I1590 I1591 I1592 I1593 I1594 I1595 I1596 I1597 I1598 I1599 I1600 I1601 I1602 I1603 I1604 I1605 I1606 I1607 I1608 I1609 I1610 I1611 I1612 I1613 I1614 I1615 I1616 I1617 I1618 I1619 I1620 I1621 I1622 I1623 I1624 I1625 I1626 I1627 I1628 I1629 I1630 I1631 I1632 I1633 I1634 I1635 I1636 I1637 I1638 I1639 I1640 I1641 I1642 I1643 I1644 I1645 I1646 I1647 I1648 I1649 I1650 I1651 I1652 I1653 I1654 I1655 I1656 I1657 I1658 I1659 I1660 I1661 I1662 I1663 I1664 I1665 I1666 I1667 I1668 I1669 I1670 I1671 I1672 I1673 I1674 I1675 I1676 I1677 I1678 I1679 I1680 I1681 I1682 I1683 I1684 I1685 I1686 I1687 I1688 I1689 I1690 I1691 I1692 I1693 I1694 I1695 I1696 I1697 I1698 I1699 I1700 I1701 I1702 I1703 I1704 I1705 I1706 I1707 I1708 I1709 I1710 I1711 I1712 I1713 I1714 I1715 I1716 I1717 I1718 I1719 I1720 I1721 I1722 I1723 I1724 I1725 I1726 I1727 I1728 I1729 I1730 I1731 I1732 I1733 I1734 I1735 I1736 I1737 I1738 I1739 I1740 I1741 I1742 I1743 I1744 I1745 I1746 I1747 I1748 I1749 I1750 I1751 I1752 I1753 I1754 I1755 I1756 I1757 I1758 I1759 I1760 I1761 I1762 I1763 I1764 I1765 I1766 I1767 I1768 I1769 I1770 I1771 I1772 I1773 I1774 I1775 I1776 I1777 I1778 I1779 I1780 I1781 I1782 I1783 I1784 I1785 I1786 I1787 I1788 I1789 I1790 I1791 I1792 I1793 I1794 I1795 I1796 I1797 I1798 I1799 I1800 I1801 I1802 I1803 I1804 I1805 I1806 I1807 I1808 I1809 I1810 I1811 I1812 I1813 I1814 I1815 I1816 I1817 I1818 I1819 I1820 I1821 I1822 I1823 I1824 I1825 I1826 I1827 I1828 I1829 I1830 I1831 I1832 I1833 I1834 I1835 I1836 I1837" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I126 I127 I128 I129 I130 I131 I132 I133 I134 I135 I136 I137 I138 I139 I140 I141 I142 I143 I144 I145 I146 I147 I148 I149 I150 I151 I152 I153 I154 I155 I156 I157 I158 I159 I160 I161 I162 I163 I164 I165 I166 I167 I168 I169 I170 I171 I172 I173 I174 I175 I176 I177 I178 I179 I180 I181 I182 I183 I184 I185 I186 I187 I188 I189 I190 I191 I192 I193 I194 I195 I196 I197 I198 I199 I200 I201 I202 I203 I204 I205 I206 I207 I208 I209 I210 I211 I212 I213 I214 I215 I216 I217 I218 I219 I220 I221 I222 I223 I224 I225 I226 I227 I228 I229 I230 I231 I232 I233 I234 I235 I236 I237 I238 I239 I240 I241 I242 I243 I244 I245 I246 I247 I248 I249 I250 I251 I252 I253 I254 I255 I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I381 I382 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I472 I473 I474 I475 I476 I477 I478 I479 I480 I481 I482 I483 I484 I485 I486 I487 I488 I489 I490 I491 I492 I493 I494 I495 I496 I497 I498 I499 I500 I501 I502 I503 I504 I505 I506 I507 I508 I509 I510 I511 I512 I513 I514 I515 I516 I517 I518 I519 I520 I521 I522 I523 I524 I525 I526 I527 I528 I529 I530 I531 I532 I533 I534 I535 I536 I537 I538 I539 I540 I541 I542 I543 I544 I545 I546 I547 I548 I549 I550 I551 I552 I553 I554 I555 I556 I557 I558 I559 I560 I561 I562 I563 I564 I565 I566 I567 I568 I569 I570 I571 I572 I573 I574 I575 I576 I577 I578 I579 I580 I581 I582 I583 I584 I585 I586 I587 I588 I589 I590 I591 I592 I593 I594 I595 I596 I597 I598 I599 I600 I601 I602 I603 I604 I605 I606 I607 I608 I609 I610 I611 I612 I613 I614 I615 I616 I617 I618 I619 I620 I621 I622 I623 I624 I625 I626 I627 I628 I629 I630 I631 I632 I633 I634 I635 I636 I637 I638 I639 I640 I641 I642 I643 I644 I645 I646 I647 I648 I649 I650 I651 I652 I653 I654 I655 I656 I657 I658 I659 I660 I661 I662 I663 I664 I665 I666 I667 I668 I669 I670 I671 I672 I673 I674 I675 I676 I677 I678 I679 I680 I681 I682 I683 I684 I685 I686 I687 I688 I689 I690 I691 I692 I693 I694 I695 I696 I697 I698 I699 I700 I701 I702 I703 I704 I705 I706 I707 I708 I709 I710 I711 I712 I713 I714 I715 I716 I717 I718 I719 I720 I721 I722 I723 I724 I725 I726 I727 I728 I729 I730 I731 I732 I733 I734 I735 I736 I737 I738 I739 I740 I741 I742 I743 I744 I745 I746 I747 I748 I749 I750 I751 I752 I753 I754 I755 I756 I757 I758 I759 I760 I761 I762 I763 I764 I765 I766 I767 I768 I769 I770 I771 I772 I773 I774 I775 I776 I777 I778 I779 I780 I781 I782 I783 I784 I785 I786 I787 I788 I789 I790 I791 I792 I793 I794 I795 I796 I797 I798 I799 I800 I801 I802 I803 I804 I805 I806 I807 I808 I809 I810 I811 I812 I813 I814 I815 I816 I817 I818 I819 I820 I821 I822 I823 I824 I825 I826 I827 I828 I829 I830 I831 I832 I833 I834 I835 I836 I837 I838 I839 I840 I841 I842 I843 I844 I845 I846 I847 I848 I849 I850 I851 I852 I853 I854 I855 I856 I857 I858 I859 I860 I861 I862 I863 I864 I865 I866 I867 I868 I869 I870 I871 I872 I873 I874 I875 I876 I877 I878 I879 I880 I881 I882 I883 I884 I885 I886 I887 I888 I889 I890 I891 I892 I893 I894 I895 I896 I897 I898 I899 I900 I901 I902 I903 I904 I905 I906 I907 I908 I909 I910 I911 I912 I913 I914 I915 I916 I917 I918 I919 I920 I921 I922 I923 I924 I925 I926 I927 I928 I929 I930 I931 I932 I933 I934 I935 I936 I937 I938 I939 I940 I941 I942 I943 I944 I945 I946 I947 I948 I949 I950 I951 I952 I953 I954 I955 I956 I957 I958 I959 I960 I961 I962 I963 I964 I965 I966 I967 I968 I969 I970 I971 I972 I973 I974 I975 I976 I977 I978 I979 I980 I981 I982 I983 I984 I985 I986 I987 I988 I989 I990 I991 I992 I993 I994 I995 I996 I997 I998 I999 I1000 I1001 I1002 I1003 I1004 I1005 I1006 I1007 I1008 I1009 I1010 I1011 I1012 I1013 I1014 I1015 I1016 I1017 I1018 I1019 I1020 I1021 I1022 I1023 I1024 I1025 I1026 I1027 I1028 I1029 I1030 I1031 I1032 I1033 I1034 I1035 I1036 I1037 I1038 I1039 I1040 I1041 I1042 I1043 I1044 I1045 I1046 I1047 I1048 I1049 I1050 I1051 I1052 I1053 I1054 I1055 I1056 I1057 I1058 I1059 I1060 I1061 I1062 I1063 I1064 I1065 I1066 I1067 I1068 I1069 I1070 I1071 I1072 I1073 I1074 I1075 I1076 I1077 I1078 I1079 I1080 I1081 I1082 I1083 I1084 I1085 I1086 I1087 I1088 I1089 I1090 I1091 I1092 I1093 I1094 I1095 I1096 I1097 I1098 I1099 I1100 I1101 I1102 I1103 I1104 I1105 I1106 I1107 I1108 I1109 I1110 I1111 I1112 I1113 I1114 I1115 I1116 I1117 I1118 I1119 I1120 I1121 I1122 I1123 I1124 I1125 I1126 I1127 I1128 I1129 I1130 I1131 I1132 I1133 I1134 I1135 I1136 I1137 I1138 I1139 I1140 I1141 I1142 I1143 I1144 I1145 I1146 I1147 I1148 I1149 I1150 I1151 I1152 I1153 I1154 I1155 I1156 I1157 I1158 I1159 I1160 I1161 I1162 I1163 I1164 I1165 I1166 I1167 I1168 I1169 I1170 I1171 I1172 I1173 I1174 I1175 I1176 I1177 I1178 I1179 I1180 I1181 I1182 I1183 I1184 I1185 I1186 I1187 I1188 I1189 I1190 I1191 I1192 I1193 I1194 I1195 I1196 I1197 I1198 I1199 I1200 I1201 I1202 I1203 I1204 I1205 I1206 I1207 I1208 I1209 I1210 I1211 I1212 I1213 I1214 I1215 I1216 I1217 I1218 I1219 I1220 I1221 I1222 I1223 I1224 I1225 I1226 I1227 I1228 I1229 I1230 I1231 I1232 I1233 I1234 I1235 I1236 I1237 I1238 I1239 I1240 I1241 I1242 I1243 I1244 I1245 I1246 I1247 I1248 I1249 I1250 I1251 I1252 I1253 I1254 I1255 I1256 I1257 I1258 I1259 I1260 I1261 I1262 I1263 I1264 I1265 I1266 I1267 I1268 I1269 I1270 I1271 I1272 I1273 I1274 I1275 I1276 I1277 I1278 I1279 I1280 I1281 I1282 I1283 I1284 I1285 I1286 I1287 I1288 I1289 I1290 I1291 I1292 I1293 I1294 I1295 I1296 I1297 I1298 I1299 I1300 I1301 I1302 I1303 I1304 I1305 I1306 I1307 I1308 I1309 I1310 I1311 I1312 I1313 I1314 I1315 I1316 I1317 I1318 I1319 I1320 I1321 I1322 I1323 I1324 I1325 I1326 I1327 I1328 I1329 I1330 I1331 I1332 I1333 I1334 I1335 I1336 I1337 I1338 I1339 I1340 I1341 I1342 I1343 I1344 I1345 I1346 I1347 I1348 I1349 I1350 I1351 I1352 I1353 I1354 I1355 I1356 I1357 I1358 I1359 I1360 I1361 I1362 I1363 I1364 I1365 I1366 I1367 I1368 I1369 I1370 I1371 I1372 I1373 I1374 I1375 I1376 I1377 I1378 I1379 I1380 I1381 I1382 I1383 I1384 I1385 I1386 I1387 I1388 I1389 I1390 I1391 I1392 I1393 I1394 I1395 I1396 I1397 I1398 I1399 I1400 I1401 I1402 I1403 I1404 I1405 I1406 I1407 I1408 I1409 I1410 I1411 I1412 I1413 I1414 I1415 I1416 I1417 I1418 I1419 I1420 I1421 I1422 I1423 I1424 I1425 I1426 I1427 I1428 I1429 I1430 I1431 I1432 I1433 I1434 I1435 I1436 I1437 I1438 I1439 I1440 I1441 I1442 I1443 I1444 I1445 I1446 I1447 I1448 I1449 I1450 I1451 I1452 I1453 I1454 I1455 I1456 I1457 I1458 I1459 I1460 I1461 I1462 I1463 I1464 I1465 I1466 I1467 I1468 I1469 I1470 I1471 I1472 I1473 I1474 I1475 I1476 I1477 I1478 I1479 I1480 I1481 I1482 I1483 I1484 I1485 I1486 I1487 I1488 I1489 I1490 I1491 I1492 I1493 I1494 I1495 I1496 I1497 I1498 I1499 I1500 I1501 I1502 I1503 I1504 I1505 I1506 I1507 I1508 I1509 I1510 I1511 I1512 I1513 I1514 I1515 I1516 I1517 I1518 I1519 I1520 I1521 I1522 I1523 I1524 I1525 I1526 I1527 I1528 I1529 I1530 I1531 I1532 I1533 I1534 I1535 I1536 I1537 I1538 I1539 I1540 I1541 I1542 I1543 I1544 I1545 I1546 I1547 I1548 I1549 I1550 I1551 I1552 I1553 I1554 I1555 I1556 I1557 I1558 I1559 I1560 I1561 I1562 I1563 I1564 I1565 I1566 I1567 I1568 I1569 I1570 I1571 I1572 I1573 I1574 I1575 I1576 I1577 I1578 I1579 I1580 I1581 I1582 I1583 I1584 I1585 I1586 I1587 I1588 I1589 I1590 I1591 I1592 I1593 I1594 I1595 I1596 I1597 I1598 I1599 I1600 I1601 I1602 I1603 I1604 I1605 I1606 I1607 I1608 I1609 I1610 I1611 I1612 I1613 I1614 I1615 I1616 I1617 I1618 I1619 I1620 I1621 I1622 I1623 I1624 I1625 I1626 I1627 I1628 I1629 I1630 I1631 I1632 I1633 I1634 I1635 I1636 I1637 I1638 I1639 I1640 I1641 I1642 I1643 I1644 I1645 I1646 I1647 I1648 I1649 I1650 I1651 I1652 I1653 I1654 I1655 I1656 I1657 I1658 I1659 I1660 I1661 I1662 I1663 I1664 I1665 I1666 I1667 I1668 I1669 I1670 I1671 I1672 I1673 I1674 I1675 I1676 I1677 I1678 I1679 I1680 I1681 I1682 I1683 I1684 I1685 I1686 I1687 I1688 I1689 I1690 I1691 I1692 I1693 I1694 I1695 I1696 I1697 I1698 I1699 I1700 I1701 I1702 I1703 I1704 I1705 I1706 I1707 I1708 I1709 I1710 I1711 I1712 I1713 I1714 I1715 I1716 I1717 I1718 I1719 I1720 I1721 I1722 I1723 I1724 I1725 I1726 I1727 I1728 I1729 I1730 I1731 I1732 I1733 I1734 I1735 I1736 I1737 I1738 I1739 I1740 I1741 I1742 I1743 I1744 I1745 I1746 I1747 I1748 I1749 I1750 I1751 I1752 I1753 I1754 I1755 I1756 I1757 I1758 I1759 I1760 I1761 I1762 I1763 I1764 I1765 I1766 I1767 I1768 I1769 I1770 I1771 I1772 I1773 I1774 I1775 I1776 I1777 I1778 I1779 I1780 I1781 I1782 I1783 I1784 I1785 I1786 I1787 I1788 I1789 I1790 I1791 I1792 I1793 I1794 I1795 I1796 I1797 I1798 I1799 I1800 I1801 I1802 I1803 I1804 I1805 I1806 I1807 I1808 I1809 I1810" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -35585,7 +35617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35661,19 +35693,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>299</t>
-        </is>
+      <c r="A2" t="n">
+        <v>298</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anish</t>
+          <t>_No</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Thapaliya</t>
+          <t>response_</t>
         </is>
       </c>
       <c r="D2">
@@ -35718,19 +35748,17 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
+      <c r="A3" t="n">
+        <v>292</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abdou</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIOP</t>
+          <t>Guerra</t>
         </is>
       </c>
       <c r="D3">
@@ -35775,10 +35803,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>287</t>
-        </is>
+      <c r="A4" t="n">
+        <v>287</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -35832,19 +35858,17 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
+      <c r="A5" t="n">
+        <v>285</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Akash</t>
+          <t>Alexey</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Agrawal</t>
+          <t>Gruzdev</t>
         </is>
       </c>
       <c r="D5">
@@ -35889,19 +35913,17 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>271</t>
-        </is>
+      <c r="A6" t="n">
+        <v>281</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Phuriwat</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wang</t>
+          <t>Angkoondittaphong</t>
         </is>
       </c>
       <c r="D6">
@@ -35946,19 +35968,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>269</t>
-        </is>
+      <c r="A7" t="n">
+        <v>275</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Giorgio</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Magno</t>
+          <t>Pousty</t>
         </is>
       </c>
       <c r="D7">
@@ -36003,19 +36023,17 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
+      <c r="A8" t="n">
+        <v>271</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Navarro</t>
+          <t>Wang</t>
         </is>
       </c>
       <c r="D8">
@@ -36060,19 +36078,17 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
+      <c r="A9" t="n">
+        <v>268</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hussain</t>
+          <t>Assoc.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Salih</t>
+          <t>Cinar</t>
         </is>
       </c>
       <c r="D9">
@@ -36117,19 +36133,17 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
+      <c r="A10" t="n">
+        <v>261</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dowling</t>
+          <t>Navarro</t>
         </is>
       </c>
       <c r="D10">
@@ -36174,19 +36188,17 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
+      <c r="A11" t="n">
+        <v>257</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sahdev</t>
+          <t>Temidayo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Zala</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="D11">
@@ -36231,19 +36243,17 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
+      <c r="A12" t="n">
+        <v>252</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Zaynul</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>vonThenen</t>
+          <t>Miah</t>
         </is>
       </c>
       <c r="D12">
@@ -36288,19 +36298,17 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
+      <c r="A13" t="n">
+        <v>246</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nura</t>
+          <t>Fady</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sufiyanu</t>
+          <t>Nabil</t>
         </is>
       </c>
       <c r="D13">
@@ -36345,19 +36353,17 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
+      <c r="A14" t="n">
+        <v>244</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Omkar</t>
+          <t>Abdulhayyu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kabde</t>
+          <t>Abubakar</t>
         </is>
       </c>
       <c r="D14">
@@ -36402,19 +36408,17 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
+      <c r="A15" t="n">
+        <v>241</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ismail</t>
+          <t>Omkar</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Feranmi</t>
+          <t>Kabde</t>
         </is>
       </c>
       <c r="D15">
@@ -36459,19 +36463,17 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
+      <c r="A16" t="n">
+        <v>234</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Ediomo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Winner</t>
+          <t>Udoekere</t>
         </is>
       </c>
       <c r="D16">
@@ -36516,10 +36518,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
+      <c r="A17" t="n">
+        <v>228</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -36569,19 +36569,17 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
+      <c r="A18" t="n">
+        <v>227</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Alireza</t>
+          <t>Ahsan</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hosseini</t>
+          <t>Umar</t>
         </is>
       </c>
       <c r="D18">
@@ -36626,19 +36624,17 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
+      <c r="A19" t="n">
+        <v>222</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Derbew</t>
+          <t>Shrutakeerti</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Felasman</t>
+          <t>Datta</t>
         </is>
       </c>
       <c r="D19">
@@ -36683,19 +36679,17 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
+      <c r="A20" t="n">
+        <v>219</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Saagara</t>
+          <t>Derbew</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Baiju</t>
+          <t>Felasman</t>
         </is>
       </c>
       <c r="D20">
@@ -36740,19 +36734,17 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
+      <c r="A21" t="n">
+        <v>217</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Onics</t>
+          <t>Saagara</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Baiju</t>
         </is>
       </c>
       <c r="D21">
@@ -36797,19 +36789,17 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
+      <c r="A22" t="n">
+        <v>213</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Akilsurya</t>
+          <t>Mukhammad</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sivakumar</t>
+          <t>Rafsanjani</t>
         </is>
       </c>
       <c r="D22">
@@ -36854,19 +36844,17 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="A23" t="n">
+        <v>209</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Kelvin</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Seng</t>
+          <t>Rotich</t>
         </is>
       </c>
       <c r="D23">
@@ -36911,19 +36899,17 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>203</t>
-        </is>
+      <c r="A24" t="n">
+        <v>205</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Kunal</t>
+          <t>Koki</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mishra</t>
+          <t>Mitsunami</t>
         </is>
       </c>
       <c r="D24">
@@ -36968,10 +36954,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
+      <c r="A25" t="n">
+        <v>198</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -37025,10 +37009,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>194</t>
-        </is>
+      <c r="A26" t="n">
+        <v>194</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -37082,10 +37064,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
+      <c r="A27" t="n">
+        <v>188</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -37139,19 +37119,17 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
+      <c r="A28" t="n">
+        <v>174</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Zhiqing</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Xiao</t>
+          <t>Sabaa</t>
         </is>
       </c>
       <c r="D28">
@@ -37196,19 +37174,17 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
+      <c r="A29" t="n">
+        <v>172</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Mitzuko</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sabaa</t>
+          <t>Callañaupa</t>
         </is>
       </c>
       <c r="D29">
@@ -37253,19 +37229,17 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
+      <c r="A30" t="n">
+        <v>171</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Madan</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>RAHMAN</t>
         </is>
       </c>
       <c r="D30">
@@ -37310,10 +37284,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>168</t>
-        </is>
+      <c r="A31" t="n">
+        <v>168</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -37367,19 +37339,17 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
+      <c r="A32" t="n">
+        <v>160</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Stephen</t>
+          <t>Ephraim</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Watt</t>
+          <t>Mwereza</t>
         </is>
       </c>
       <c r="D32">
@@ -37424,19 +37394,17 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
+      <c r="A33" t="n">
+        <v>157</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Meetish</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nazif</t>
+          <t>Dave</t>
         </is>
       </c>
       <c r="D33">
@@ -37481,19 +37449,17 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
+      <c r="A34" t="n">
+        <v>155</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Md</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tanvir</t>
+          <t>Ribeiro</t>
         </is>
       </c>
       <c r="D34">
@@ -37538,19 +37504,17 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
+      <c r="A35" t="n">
+        <v>153</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Meetish</t>
+          <t>Eikan</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Dave</t>
+          <t>Wang</t>
         </is>
       </c>
       <c r="D35">
@@ -37595,19 +37559,17 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
+      <c r="A36" t="n">
+        <v>150</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Zesheng</t>
+          <t>Masahiro</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Zong</t>
+          <t>Hiramori</t>
         </is>
       </c>
       <c r="D36">
@@ -37652,19 +37614,17 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
+      <c r="A37" t="n">
+        <v>147</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Masahiro</t>
+          <t>TAMWO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hiramori</t>
+          <t>VALERE</t>
         </is>
       </c>
       <c r="D37">
@@ -37709,10 +37669,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
+      <c r="A38" t="n">
+        <v>145</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -37766,19 +37724,17 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
+      <c r="A39" t="n">
+        <v>141</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Grace</t>
+          <t>Davy</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Gong</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D39">
@@ -37823,19 +37779,17 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
+      <c r="A40" t="n">
+        <v>137</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mukharbek</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Organokov</t>
+          <t>Chan</t>
         </is>
       </c>
       <c r="D40">
@@ -37880,10 +37834,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
+      <c r="A41" t="n">
+        <v>134</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -37937,10 +37889,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
+      <c r="A42" t="n">
+        <v>130</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -37994,19 +37944,17 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
+      <c r="A43" t="n">
+        <v>124</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kuyeso</t>
+          <t>Mustafa</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rogers</t>
+          <t>AbdulRazek</t>
         </is>
       </c>
       <c r="D43">
@@ -38051,19 +37999,17 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
+      <c r="A44" t="n">
+        <v>117</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mustafa</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AbdulRazek</t>
+          <t>Elsayed</t>
         </is>
       </c>
       <c r="D44">
@@ -38108,19 +38054,17 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
+      <c r="A45" t="n">
+        <v>116</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Arun</t>
+          <t>Sandin</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Bhandari</t>
+          <t>Maheeshakya</t>
         </is>
       </c>
       <c r="D45">
@@ -38165,19 +38109,17 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
+      <c r="A46" t="n">
+        <v>114</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Ibrahim</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Elsayed</t>
+          <t>Fadhili</t>
         </is>
       </c>
       <c r="D46">
@@ -38222,19 +38164,17 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
+      <c r="A47" t="n">
+        <v>110</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Muhammad</t>
+          <t>MUHAMMAD</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hamid</t>
+          <t>AHMAD</t>
         </is>
       </c>
       <c r="D47">
@@ -38279,19 +38219,17 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="A48" t="n">
+        <v>105</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MUHAMMAD</t>
+          <t>Harini</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AHMAD</t>
+          <t>Anand</t>
         </is>
       </c>
       <c r="D48">
@@ -38336,17 +38274,19 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
+      <c r="A49" t="n">
+        <v>103</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Argo</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>Varanasi</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Akhil</t>
+        </is>
+      </c>
       <c r="D49">
         <f>SUMPRODUCT(--('Review Sheet'!I1271:I1272="Yes"))</f>
         <v/>
@@ -38389,19 +38329,17 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
+      <c r="A50" t="n">
+        <v>99</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Akaash</t>
+          <t>Prajwal</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Tripathi</t>
+          <t>Shrestha</t>
         </is>
       </c>
       <c r="D50">
@@ -38446,19 +38384,17 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="A51" t="n">
+        <v>96</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Jam</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Subrata</t>
+          <t>Villarosa</t>
         </is>
       </c>
       <c r="D51">
@@ -38503,19 +38439,17 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
+      <c r="A52" t="n">
+        <v>92</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NOMTHANDAZO</t>
+          <t>Pratik</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>TSHUMA</t>
+          <t>Korat</t>
         </is>
       </c>
       <c r="D52">
@@ -38560,19 +38494,17 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
+      <c r="A53" t="n">
+        <v>89</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Alperen</t>
+          <t>Sami</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ÜNLÜ</t>
+          <t>Adnan</t>
         </is>
       </c>
       <c r="D53">
@@ -38617,19 +38549,17 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+      <c r="A54" t="n">
+        <v>86</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Umair</t>
+          <t>Iflal</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Inayat</t>
+          <t>Ismalebbe</t>
         </is>
       </c>
       <c r="D54">
@@ -38674,10 +38604,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="A55" t="n">
+        <v>82</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -38731,19 +38659,17 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="A56" t="n">
+        <v>80</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Andrey</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cheptsov</t>
+          <t>MEDRANO</t>
         </is>
       </c>
       <c r="D56">
@@ -38788,19 +38714,17 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="A57" t="n">
+        <v>74</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Alexandru</t>
+          <t>Jyoti</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Aslău</t>
+          <t>Sahoo</t>
         </is>
       </c>
       <c r="D57">
@@ -38845,19 +38769,17 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="A58" t="n">
+        <v>72</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Jyoti</t>
+          <t>Marimuthu</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sahoo</t>
+          <t>Kalimuthu</t>
         </is>
       </c>
       <c r="D58">
@@ -38902,19 +38824,17 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="A59" t="n">
+        <v>66</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Md</t>
+          <t>Lucky</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Rahi</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="D59">
@@ -38959,10 +38879,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+      <c r="A60" t="n">
+        <v>65</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -39016,19 +38934,17 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
+      <c r="A61" t="n">
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Debashish</t>
+          <t>Prakash</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Chakraborty</t>
+          <t>Baburaj</t>
         </is>
       </c>
       <c r="D61">
@@ -39073,19 +38989,17 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
+      <c r="A62" t="n">
+        <v>57</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Prakash</t>
+          <t>subburaj</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Baburaj</t>
+          <t>sankarappan</t>
         </is>
       </c>
       <c r="D62">
@@ -39130,19 +39044,17 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
+      <c r="A63" t="n">
+        <v>51</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Saikumarreddy</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Vega</t>
         </is>
       </c>
       <c r="D63">
@@ -39187,19 +39099,17 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
+      <c r="A64" t="n">
+        <v>46</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Aditya</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Thakuri</t>
+          <t>Fernandes</t>
         </is>
       </c>
       <c r="D64">
@@ -39244,19 +39154,17 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+      <c r="A65" t="n">
+        <v>45</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mazen</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Alotaibi</t>
+          <t>KANGONI</t>
         </is>
       </c>
       <c r="D65">
@@ -39301,19 +39209,17 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
+      <c r="A66" t="n">
+        <v>39</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Rawanna</t>
+          <t>Md</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Chathuranga</t>
+          <t>Shad</t>
         </is>
       </c>
       <c r="D66">
@@ -39358,19 +39264,17 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="A67" t="n">
+        <v>35</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Krishna</t>
+          <t>Ojas</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Kalyan</t>
+          <t>Patil</t>
         </is>
       </c>
       <c r="D67">
@@ -39415,19 +39319,17 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="A68" t="n">
+        <v>32</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sagi</t>
+          <t>Badar</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Bharadwaj</t>
+          <t>Butt</t>
         </is>
       </c>
       <c r="D68">
@@ -39468,63 +39370,6 @@
       </c>
       <c r="M68">
         <f>SUM(D68,E68,F68,G68,H68,I68,J68,K68,L68)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ANAGHA</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1811:I1812="Yes"))</f>
-        <v/>
-      </c>
-      <c r="E69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1813:I1815="Yes"))</f>
-        <v/>
-      </c>
-      <c r="F69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1816:I1817="Yes"))</f>
-        <v/>
-      </c>
-      <c r="G69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1818:I1824="Yes"))</f>
-        <v/>
-      </c>
-      <c r="H69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1825:I1828="Yes"))</f>
-        <v/>
-      </c>
-      <c r="I69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1829:I1830="Yes"))</f>
-        <v/>
-      </c>
-      <c r="J69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1831:I1832="Yes"))</f>
-        <v/>
-      </c>
-      <c r="K69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1833:I1836="Yes"))</f>
-        <v/>
-      </c>
-      <c r="L69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1837:I1837="Yes"))</f>
-        <v/>
-      </c>
-      <c r="M69">
-        <f>SUM(D69,E69,F69,G69,H69,I69,J69,K69,L69)</f>
         <v/>
       </c>
     </row>
